--- a/exe/TSV/Excel/W11_Enohara-Inspection-Indicater_UIList.xlsx
+++ b/exe/TSV/Excel/W11_Enohara-Inspection-Indicater_UIList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaInterlockinglConsole\exe\TSV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C459FC-C60A-426B-A70A-0DA2EF8B866C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F88B8921-B015-4ADE-93B0-BBD4828E9132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5595" yWindow="5175" windowWidth="24300" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7995" yWindow="4605" windowWidth="24300" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="W11_江ノ原検車区表示盤_UIList" sheetId="1" r:id="rId1"/>
@@ -410,7 +410,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="273">
   <si>
     <t>Type</t>
   </si>
@@ -772,6 +772,9 @@
     <t>1RT_2</t>
   </si>
   <si>
+    <t>1RT_3</t>
+  </si>
+  <si>
     <t>1RCT_1</t>
   </si>
   <si>
@@ -784,6 +787,9 @@
     <t>5LET_2</t>
   </si>
   <si>
+    <t>5LET_3</t>
+  </si>
+  <si>
     <t>5LT_1</t>
   </si>
   <si>
@@ -1109,6 +1115,9 @@
   </si>
   <si>
     <t>列番上り第2接近</t>
+  </si>
+  <si>
+    <t>列番5LDT</t>
   </si>
   <si>
     <t>列番13T</t>
@@ -1540,7 +1549,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AE214"/>
+  <dimension ref="A1:AD217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -1557,10 +1566,10 @@
     <col min="21" max="21" width="37.5703125" customWidth="1"/>
     <col min="22" max="22" width="100.140625" customWidth="1"/>
     <col min="23" max="23" width="62.5703125" customWidth="1"/>
-    <col min="24" max="31" width="13.85546875" customWidth="1"/>
+    <col min="24" max="30" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1637,9 +1646,8 @@
       <c r="AB1" s="3"/>
       <c r="AC1" s="3"/>
       <c r="AD1" s="3"/>
-      <c r="AE1" s="3"/>
-    </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>23</v>
       </c>
@@ -1680,9 +1688,8 @@
       <c r="AB2" s="3"/>
       <c r="AC2" s="3"/>
       <c r="AD2" s="3"/>
-      <c r="AE2" s="3"/>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>26</v>
       </c>
@@ -1729,9 +1736,8 @@
       <c r="AB3" s="3"/>
       <c r="AC3" s="3"/>
       <c r="AD3" s="3"/>
-      <c r="AE3" s="3"/>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>26</v>
       </c>
@@ -1776,9 +1782,8 @@
       <c r="AB4" s="3"/>
       <c r="AC4" s="3"/>
       <c r="AD4" s="3"/>
-      <c r="AE4" s="3"/>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>26</v>
       </c>
@@ -1823,9 +1828,8 @@
       <c r="AB5" s="3"/>
       <c r="AC5" s="3"/>
       <c r="AD5" s="3"/>
-      <c r="AE5" s="3"/>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>26</v>
       </c>
@@ -1837,7 +1841,7 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4">
-        <v>1038</v>
+        <v>1164</v>
       </c>
       <c r="H6" s="4">
         <v>662</v>
@@ -1870,9 +1874,8 @@
       <c r="AB6" s="3"/>
       <c r="AC6" s="3"/>
       <c r="AD6" s="3"/>
-      <c r="AE6" s="3"/>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>26</v>
       </c>
@@ -1884,7 +1887,7 @@
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4">
-        <v>1147</v>
+        <v>1273</v>
       </c>
       <c r="H7" s="4">
         <v>602</v>
@@ -1917,9 +1920,8 @@
       <c r="AB7" s="3"/>
       <c r="AC7" s="3"/>
       <c r="AD7" s="3"/>
-      <c r="AE7" s="3"/>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>26</v>
       </c>
@@ -1931,7 +1933,7 @@
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4">
-        <v>1147</v>
+        <v>1273</v>
       </c>
       <c r="H8" s="4">
         <v>700</v>
@@ -1964,9 +1966,8 @@
       <c r="AB8" s="3"/>
       <c r="AC8" s="3"/>
       <c r="AD8" s="3"/>
-      <c r="AE8" s="3"/>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>26</v>
       </c>
@@ -1978,7 +1979,7 @@
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4">
-        <v>1214</v>
+        <v>1237</v>
       </c>
       <c r="H9" s="4">
         <v>820</v>
@@ -2011,9 +2012,8 @@
       <c r="AB9" s="3"/>
       <c r="AC9" s="3"/>
       <c r="AD9" s="3"/>
-      <c r="AE9" s="3"/>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>26</v>
       </c>
@@ -2025,7 +2025,7 @@
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4">
-        <v>1206</v>
+        <v>1229</v>
       </c>
       <c r="H10" s="4">
         <v>838</v>
@@ -2058,9 +2058,8 @@
       <c r="AB10" s="3"/>
       <c r="AC10" s="3"/>
       <c r="AD10" s="3"/>
-      <c r="AE10" s="3"/>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>26</v>
       </c>
@@ -2072,7 +2071,7 @@
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4">
-        <v>690</v>
+        <v>816</v>
       </c>
       <c r="H11" s="4">
         <v>669</v>
@@ -2105,9 +2104,8 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-      <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>26</v>
       </c>
@@ -2119,7 +2117,7 @@
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4">
-        <v>754</v>
+        <v>880</v>
       </c>
       <c r="H12" s="4">
         <v>671</v>
@@ -2152,9 +2150,8 @@
       <c r="AB12" s="3"/>
       <c r="AC12" s="3"/>
       <c r="AD12" s="3"/>
-      <c r="AE12" s="3"/>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>26</v>
       </c>
@@ -2166,7 +2163,7 @@
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4">
-        <v>1020</v>
+        <v>1146</v>
       </c>
       <c r="H13" s="4">
         <v>661</v>
@@ -2199,9 +2196,8 @@
       <c r="AB13" s="3"/>
       <c r="AC13" s="3"/>
       <c r="AD13" s="3"/>
-      <c r="AE13" s="3"/>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>26</v>
       </c>
@@ -2213,7 +2209,7 @@
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4">
-        <v>1114</v>
+        <v>1240</v>
       </c>
       <c r="H14" s="4">
         <v>601</v>
@@ -2246,9 +2242,8 @@
       <c r="AB14" s="3"/>
       <c r="AC14" s="3"/>
       <c r="AD14" s="3"/>
-      <c r="AE14" s="3"/>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>26</v>
       </c>
@@ -2260,7 +2255,7 @@
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4">
-        <v>1165</v>
+        <v>1291</v>
       </c>
       <c r="H15" s="4">
         <v>603</v>
@@ -2293,9 +2288,8 @@
       <c r="AB15" s="3"/>
       <c r="AC15" s="3"/>
       <c r="AD15" s="3"/>
-      <c r="AE15" s="3"/>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>26</v>
       </c>
@@ -2307,7 +2301,7 @@
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4">
-        <v>1187</v>
+        <v>1313</v>
       </c>
       <c r="H16" s="4">
         <v>602</v>
@@ -2340,9 +2334,8 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-      <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>26</v>
       </c>
@@ -2354,7 +2347,7 @@
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4">
-        <v>1165</v>
+        <v>1291</v>
       </c>
       <c r="H17" s="4">
         <v>701</v>
@@ -2387,9 +2380,8 @@
       <c r="AB17" s="3"/>
       <c r="AC17" s="3"/>
       <c r="AD17" s="3"/>
-      <c r="AE17" s="3"/>
-    </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>26</v>
       </c>
@@ -2401,7 +2393,7 @@
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4">
-        <v>1187</v>
+        <v>1313</v>
       </c>
       <c r="H18" s="4">
         <v>700</v>
@@ -2434,9 +2426,8 @@
       <c r="AB18" s="3"/>
       <c r="AC18" s="3"/>
       <c r="AD18" s="3"/>
-      <c r="AE18" s="3"/>
-    </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="B19" s="4" t="s">
         <v>47</v>
@@ -2469,9 +2460,8 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-      <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="B20" s="4" t="s">
         <v>48</v>
@@ -2504,9 +2494,8 @@
       <c r="AB20" s="3"/>
       <c r="AC20" s="3"/>
       <c r="AD20" s="3"/>
-      <c r="AE20" s="3"/>
-    </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="B21" s="4" t="s">
         <v>49</v>
@@ -2539,9 +2528,8 @@
       <c r="AB21" s="3"/>
       <c r="AC21" s="3"/>
       <c r="AD21" s="3"/>
-      <c r="AE21" s="3"/>
-    </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
       <c r="B22" s="4" t="s">
         <v>50</v>
@@ -2574,9 +2562,8 @@
       <c r="AB22" s="3"/>
       <c r="AC22" s="3"/>
       <c r="AD22" s="3"/>
-      <c r="AE22" s="3"/>
-    </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" s="4" t="s">
         <v>51</v>
@@ -2609,9 +2596,8 @@
       <c r="AB23" s="3"/>
       <c r="AC23" s="3"/>
       <c r="AD23" s="3"/>
-      <c r="AE23" s="3"/>
-    </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
       <c r="B24" s="4" t="s">
         <v>52</v>
@@ -2644,9 +2630,8 @@
       <c r="AB24" s="3"/>
       <c r="AC24" s="3"/>
       <c r="AD24" s="3"/>
-      <c r="AE24" s="3"/>
-    </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
       <c r="B25" s="4" t="s">
         <v>53</v>
@@ -2679,9 +2664,8 @@
       <c r="AB25" s="3"/>
       <c r="AC25" s="3"/>
       <c r="AD25" s="3"/>
-      <c r="AE25" s="3"/>
-    </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
       <c r="B26" s="4" t="s">
         <v>54</v>
@@ -2714,9 +2698,8 @@
       <c r="AB26" s="3"/>
       <c r="AC26" s="3"/>
       <c r="AD26" s="3"/>
-      <c r="AE26" s="3"/>
-    </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
       <c r="B27" s="4" t="s">
         <v>55</v>
@@ -2749,9 +2732,8 @@
       <c r="AB27" s="3"/>
       <c r="AC27" s="3"/>
       <c r="AD27" s="3"/>
-      <c r="AE27" s="3"/>
-    </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
       <c r="B28" s="4" t="s">
         <v>56</v>
@@ -2784,9 +2766,8 @@
       <c r="AB28" s="3"/>
       <c r="AC28" s="3"/>
       <c r="AD28" s="3"/>
-      <c r="AE28" s="3"/>
-    </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
       <c r="B29" s="4" t="s">
         <v>57</v>
@@ -2819,9 +2800,8 @@
       <c r="AB29" s="3"/>
       <c r="AC29" s="3"/>
       <c r="AD29" s="3"/>
-      <c r="AE29" s="3"/>
-    </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
       <c r="B30" s="4" t="s">
         <v>58</v>
@@ -2854,9 +2834,8 @@
       <c r="AB30" s="3"/>
       <c r="AC30" s="3"/>
       <c r="AD30" s="3"/>
-      <c r="AE30" s="3"/>
-    </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
       <c r="B31" s="4" t="s">
         <v>59</v>
@@ -2889,9 +2868,8 @@
       <c r="AB31" s="3"/>
       <c r="AC31" s="3"/>
       <c r="AD31" s="3"/>
-      <c r="AE31" s="3"/>
-    </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
       <c r="B32" s="4" t="s">
         <v>60</v>
@@ -2924,9 +2902,8 @@
       <c r="AB32" s="3"/>
       <c r="AC32" s="3"/>
       <c r="AD32" s="3"/>
-      <c r="AE32" s="3"/>
-    </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
       <c r="B33" s="4" t="s">
         <v>61</v>
@@ -2959,9 +2936,8 @@
       <c r="AB33" s="3"/>
       <c r="AC33" s="3"/>
       <c r="AD33" s="3"/>
-      <c r="AE33" s="3"/>
-    </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
       <c r="B34" s="4" t="s">
         <v>62</v>
@@ -2994,9 +2970,8 @@
       <c r="AB34" s="3"/>
       <c r="AC34" s="3"/>
       <c r="AD34" s="3"/>
-      <c r="AE34" s="3"/>
-    </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
       <c r="B35" s="4" t="s">
         <v>63</v>
@@ -3029,9 +3004,8 @@
       <c r="AB35" s="3"/>
       <c r="AC35" s="3"/>
       <c r="AD35" s="3"/>
-      <c r="AE35" s="3"/>
-    </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
       <c r="B36" s="4" t="s">
         <v>64</v>
@@ -3064,9 +3038,8 @@
       <c r="AB36" s="3"/>
       <c r="AC36" s="3"/>
       <c r="AD36" s="3"/>
-      <c r="AE36" s="3"/>
-    </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="B37" s="4" t="s">
         <v>65</v>
@@ -3099,9 +3072,8 @@
       <c r="AB37" s="3"/>
       <c r="AC37" s="3"/>
       <c r="AD37" s="3"/>
-      <c r="AE37" s="3"/>
-    </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="4" t="s">
         <v>66</v>
@@ -3134,9 +3106,8 @@
       <c r="AB38" s="3"/>
       <c r="AC38" s="3"/>
       <c r="AD38" s="3"/>
-      <c r="AE38" s="3"/>
-    </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A39" s="4"/>
       <c r="B39" s="4" t="s">
         <v>67</v>
@@ -3169,9 +3140,8 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-      <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A40" s="4"/>
       <c r="B40" s="4" t="s">
         <v>68</v>
@@ -3204,9 +3174,8 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-      <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A41" s="4"/>
       <c r="B41" s="4" t="s">
         <v>69</v>
@@ -3239,9 +3208,8 @@
       <c r="AB41" s="3"/>
       <c r="AC41" s="3"/>
       <c r="AD41" s="3"/>
-      <c r="AE41" s="3"/>
-    </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A42" s="4"/>
       <c r="B42" s="4" t="s">
         <v>70</v>
@@ -3274,9 +3242,8 @@
       <c r="AB42" s="3"/>
       <c r="AC42" s="3"/>
       <c r="AD42" s="3"/>
-      <c r="AE42" s="3"/>
-    </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A43" s="4"/>
       <c r="B43" s="4" t="s">
         <v>71</v>
@@ -3309,9 +3276,8 @@
       <c r="AB43" s="3"/>
       <c r="AC43" s="3"/>
       <c r="AD43" s="3"/>
-      <c r="AE43" s="3"/>
-    </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>26</v>
       </c>
@@ -3358,9 +3324,8 @@
       <c r="AB44" s="3"/>
       <c r="AC44" s="3"/>
       <c r="AD44" s="3"/>
-      <c r="AE44" s="3"/>
-    </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>26</v>
       </c>
@@ -3405,9 +3370,8 @@
       <c r="AB45" s="3"/>
       <c r="AC45" s="3"/>
       <c r="AD45" s="3"/>
-      <c r="AE45" s="3"/>
-    </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>26</v>
       </c>
@@ -3452,9 +3416,8 @@
       <c r="AB46" s="3"/>
       <c r="AC46" s="3"/>
       <c r="AD46" s="3"/>
-      <c r="AE46" s="3"/>
-    </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>26</v>
       </c>
@@ -3499,9 +3462,8 @@
       <c r="AB47" s="3"/>
       <c r="AC47" s="3"/>
       <c r="AD47" s="3"/>
-      <c r="AE47" s="3"/>
-    </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
         <v>26</v>
       </c>
@@ -3546,9 +3508,8 @@
       <c r="AB48" s="3"/>
       <c r="AC48" s="3"/>
       <c r="AD48" s="3"/>
-      <c r="AE48" s="3"/>
-    </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
         <v>26</v>
       </c>
@@ -3593,9 +3554,8 @@
       <c r="AB49" s="3"/>
       <c r="AC49" s="3"/>
       <c r="AD49" s="3"/>
-      <c r="AE49" s="3"/>
-    </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>26</v>
       </c>
@@ -3640,9 +3600,8 @@
       <c r="AB50" s="3"/>
       <c r="AC50" s="3"/>
       <c r="AD50" s="3"/>
-      <c r="AE50" s="3"/>
-    </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
         <v>26</v>
       </c>
@@ -3687,9 +3646,8 @@
       <c r="AB51" s="3"/>
       <c r="AC51" s="3"/>
       <c r="AD51" s="3"/>
-      <c r="AE51" s="3"/>
-    </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
         <v>26</v>
       </c>
@@ -3736,9 +3694,8 @@
       <c r="AB52" s="3"/>
       <c r="AC52" s="3"/>
       <c r="AD52" s="3"/>
-      <c r="AE52" s="3"/>
-    </row>
-    <row r="53" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
         <v>26</v>
       </c>
@@ -3783,9 +3740,8 @@
       <c r="AB53" s="3"/>
       <c r="AC53" s="3"/>
       <c r="AD53" s="3"/>
-      <c r="AE53" s="3"/>
-    </row>
-    <row r="54" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
         <v>26</v>
       </c>
@@ -3830,9 +3786,8 @@
       <c r="AB54" s="3"/>
       <c r="AC54" s="3"/>
       <c r="AD54" s="3"/>
-      <c r="AE54" s="3"/>
-    </row>
-    <row r="55" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
         <v>26</v>
       </c>
@@ -3877,9 +3832,8 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-      <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
         <v>26</v>
       </c>
@@ -3924,9 +3878,8 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-      <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
         <v>26</v>
       </c>
@@ -3971,9 +3924,8 @@
       <c r="AB57" s="3"/>
       <c r="AC57" s="3"/>
       <c r="AD57" s="3"/>
-      <c r="AE57" s="3"/>
-    </row>
-    <row r="58" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
         <v>26</v>
       </c>
@@ -4018,9 +3970,8 @@
       <c r="AB58" s="3"/>
       <c r="AC58" s="3"/>
       <c r="AD58" s="3"/>
-      <c r="AE58" s="3"/>
-    </row>
-    <row r="59" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
         <v>26</v>
       </c>
@@ -4065,9 +4016,8 @@
       <c r="AB59" s="3"/>
       <c r="AC59" s="3"/>
       <c r="AD59" s="3"/>
-      <c r="AE59" s="3"/>
-    </row>
-    <row r="60" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
         <v>26</v>
       </c>
@@ -4114,9 +4064,8 @@
       <c r="AB60" s="3"/>
       <c r="AC60" s="3"/>
       <c r="AD60" s="3"/>
-      <c r="AE60" s="3"/>
-    </row>
-    <row r="61" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
         <v>26</v>
       </c>
@@ -4161,9 +4110,8 @@
       <c r="AB61" s="3"/>
       <c r="AC61" s="3"/>
       <c r="AD61" s="3"/>
-      <c r="AE61" s="3"/>
-    </row>
-    <row r="62" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
         <v>26</v>
       </c>
@@ -4208,9 +4156,8 @@
       <c r="AB62" s="3"/>
       <c r="AC62" s="3"/>
       <c r="AD62" s="3"/>
-      <c r="AE62" s="3"/>
-    </row>
-    <row r="63" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
         <v>26</v>
       </c>
@@ -4257,9 +4204,8 @@
       <c r="AB63" s="3"/>
       <c r="AC63" s="3"/>
       <c r="AD63" s="3"/>
-      <c r="AE63" s="3"/>
-    </row>
-    <row r="64" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
         <v>26</v>
       </c>
@@ -4304,9 +4250,8 @@
       <c r="AB64" s="3"/>
       <c r="AC64" s="3"/>
       <c r="AD64" s="3"/>
-      <c r="AE64" s="3"/>
-    </row>
-    <row r="65" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
         <v>26</v>
       </c>
@@ -4351,9 +4296,8 @@
       <c r="AB65" s="3"/>
       <c r="AC65" s="3"/>
       <c r="AD65" s="3"/>
-      <c r="AE65" s="3"/>
-    </row>
-    <row r="66" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
         <v>26</v>
       </c>
@@ -4398,9 +4342,8 @@
       <c r="AB66" s="3"/>
       <c r="AC66" s="3"/>
       <c r="AD66" s="3"/>
-      <c r="AE66" s="3"/>
-    </row>
-    <row r="67" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
         <v>26</v>
       </c>
@@ -4445,9 +4388,8 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-      <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
         <v>26</v>
       </c>
@@ -4494,9 +4436,8 @@
       <c r="AB68" s="3"/>
       <c r="AC68" s="3"/>
       <c r="AD68" s="3"/>
-      <c r="AE68" s="3"/>
-    </row>
-    <row r="69" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
         <v>26</v>
       </c>
@@ -4541,9 +4482,8 @@
       <c r="AB69" s="3"/>
       <c r="AC69" s="3"/>
       <c r="AD69" s="3"/>
-      <c r="AE69" s="3"/>
-    </row>
-    <row r="70" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
         <v>26</v>
       </c>
@@ -4588,9 +4528,8 @@
       <c r="AB70" s="3"/>
       <c r="AC70" s="3"/>
       <c r="AD70" s="3"/>
-      <c r="AE70" s="3"/>
-    </row>
-    <row r="71" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
         <v>26</v>
       </c>
@@ -4635,9 +4574,8 @@
       <c r="AB71" s="3"/>
       <c r="AC71" s="3"/>
       <c r="AD71" s="3"/>
-      <c r="AE71" s="3"/>
-    </row>
-    <row r="72" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="72" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
         <v>26</v>
       </c>
@@ -4682,9 +4620,8 @@
       <c r="AB72" s="3"/>
       <c r="AC72" s="3"/>
       <c r="AD72" s="3"/>
-      <c r="AE72" s="3"/>
-    </row>
-    <row r="73" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="73" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
         <v>26</v>
       </c>
@@ -4731,9 +4668,8 @@
       <c r="AB73" s="3"/>
       <c r="AC73" s="3"/>
       <c r="AD73" s="3"/>
-      <c r="AE73" s="3"/>
-    </row>
-    <row r="74" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="74" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
         <v>26</v>
       </c>
@@ -4778,9 +4714,8 @@
       <c r="AB74" s="3"/>
       <c r="AC74" s="3"/>
       <c r="AD74" s="3"/>
-      <c r="AE74" s="3"/>
-    </row>
-    <row r="75" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="75" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
         <v>26</v>
       </c>
@@ -4825,9 +4760,8 @@
       <c r="AB75" s="3"/>
       <c r="AC75" s="3"/>
       <c r="AD75" s="3"/>
-      <c r="AE75" s="3"/>
-    </row>
-    <row r="76" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="76" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
         <v>26</v>
       </c>
@@ -4874,9 +4808,8 @@
       <c r="AB76" s="3"/>
       <c r="AC76" s="3"/>
       <c r="AD76" s="3"/>
-      <c r="AE76" s="3"/>
-    </row>
-    <row r="77" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="77" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
         <v>26</v>
       </c>
@@ -4921,9 +4854,8 @@
       <c r="AB77" s="3"/>
       <c r="AC77" s="3"/>
       <c r="AD77" s="3"/>
-      <c r="AE77" s="3"/>
-    </row>
-    <row r="78" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="78" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
         <v>26</v>
       </c>
@@ -4968,9 +4900,8 @@
       <c r="AB78" s="3"/>
       <c r="AC78" s="3"/>
       <c r="AD78" s="3"/>
-      <c r="AE78" s="3"/>
-    </row>
-    <row r="79" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="79" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
         <v>26</v>
       </c>
@@ -5015,9 +4946,8 @@
       <c r="AB79" s="3"/>
       <c r="AC79" s="3"/>
       <c r="AD79" s="3"/>
-      <c r="AE79" s="3"/>
-    </row>
-    <row r="80" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="80" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
         <v>26</v>
       </c>
@@ -5062,9 +4992,8 @@
       <c r="AB80" s="3"/>
       <c r="AC80" s="3"/>
       <c r="AD80" s="3"/>
-      <c r="AE80" s="3"/>
-    </row>
-    <row r="81" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="81" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
         <v>26</v>
       </c>
@@ -5109,9 +5038,8 @@
       <c r="AB81" s="3"/>
       <c r="AC81" s="3"/>
       <c r="AD81" s="3"/>
-      <c r="AE81" s="3"/>
-    </row>
-    <row r="82" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="82" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
         <v>26</v>
       </c>
@@ -5156,9 +5084,8 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-      <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="83" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
         <v>26</v>
       </c>
@@ -5170,7 +5097,7 @@
       <c r="E83" s="4"/>
       <c r="F83" s="4"/>
       <c r="G83" s="4">
-        <v>547</v>
+        <v>554</v>
       </c>
       <c r="H83" s="4">
         <v>747</v>
@@ -5203,9 +5130,8 @@
       <c r="AB83" s="3"/>
       <c r="AC83" s="3"/>
       <c r="AD83" s="3"/>
-      <c r="AE83" s="3"/>
-    </row>
-    <row r="84" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="84" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
         <v>26</v>
       </c>
@@ -5217,7 +5143,7 @@
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
       <c r="G84" s="4">
-        <v>632</v>
+        <v>652</v>
       </c>
       <c r="H84" s="4">
         <v>747</v>
@@ -5250,9 +5176,8 @@
       <c r="AB84" s="3"/>
       <c r="AC84" s="3"/>
       <c r="AD84" s="3"/>
-      <c r="AE84" s="3"/>
-    </row>
-    <row r="85" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="85" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
         <v>26</v>
       </c>
@@ -5264,7 +5189,7 @@
       <c r="E85" s="4"/>
       <c r="F85" s="4"/>
       <c r="G85" s="4">
-        <v>1143</v>
+        <v>751</v>
       </c>
       <c r="H85" s="4">
         <v>747</v>
@@ -5297,9 +5222,8 @@
       <c r="AB85" s="3"/>
       <c r="AC85" s="3"/>
       <c r="AD85" s="3"/>
-      <c r="AE85" s="3"/>
-    </row>
-    <row r="86" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="86" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
         <v>26</v>
       </c>
@@ -5311,7 +5235,7 @@
       <c r="E86" s="4"/>
       <c r="F86" s="4"/>
       <c r="G86" s="4">
-        <v>1232</v>
+        <v>1238</v>
       </c>
       <c r="H86" s="4">
         <v>747</v>
@@ -5344,9 +5268,8 @@
       <c r="AB86" s="3"/>
       <c r="AC86" s="3"/>
       <c r="AD86" s="3"/>
-      <c r="AE86" s="3"/>
-    </row>
-    <row r="87" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="87" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
         <v>26</v>
       </c>
@@ -5358,10 +5281,10 @@
       <c r="E87" s="4"/>
       <c r="F87" s="4"/>
       <c r="G87" s="4">
-        <v>582</v>
+        <v>1263</v>
       </c>
       <c r="H87" s="4">
-        <v>807</v>
+        <v>747</v>
       </c>
       <c r="I87" s="4"/>
       <c r="J87" s="4"/>
@@ -5391,9 +5314,8 @@
       <c r="AB87" s="3"/>
       <c r="AC87" s="3"/>
       <c r="AD87" s="3"/>
-      <c r="AE87" s="3"/>
-    </row>
-    <row r="88" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="88" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
         <v>26</v>
       </c>
@@ -5405,7 +5327,7 @@
       <c r="E88" s="4"/>
       <c r="F88" s="4"/>
       <c r="G88" s="4">
-        <v>706</v>
+        <v>583</v>
       </c>
       <c r="H88" s="4">
         <v>807</v>
@@ -5438,9 +5360,8 @@
       <c r="AB88" s="3"/>
       <c r="AC88" s="3"/>
       <c r="AD88" s="3"/>
-      <c r="AE88" s="3"/>
-    </row>
-    <row r="89" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="89" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
         <v>26</v>
       </c>
@@ -5452,7 +5373,7 @@
       <c r="E89" s="4"/>
       <c r="F89" s="4"/>
       <c r="G89" s="4">
-        <v>1060</v>
+        <v>707</v>
       </c>
       <c r="H89" s="4">
         <v>807</v>
@@ -5485,9 +5406,8 @@
       <c r="AB89" s="3"/>
       <c r="AC89" s="3"/>
       <c r="AD89" s="3"/>
-      <c r="AE89" s="3"/>
-    </row>
-    <row r="90" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="90" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
         <v>26</v>
       </c>
@@ -5499,7 +5419,7 @@
       <c r="E90" s="4"/>
       <c r="F90" s="4"/>
       <c r="G90" s="4">
-        <v>1171</v>
+        <v>831</v>
       </c>
       <c r="H90" s="4">
         <v>807</v>
@@ -5532,9 +5452,8 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-      <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="91" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
         <v>26</v>
       </c>
@@ -5546,10 +5465,10 @@
       <c r="E91" s="4"/>
       <c r="F91" s="4"/>
       <c r="G91" s="4">
-        <v>688</v>
+        <v>1160</v>
       </c>
       <c r="H91" s="4">
-        <v>687</v>
+        <v>807</v>
       </c>
       <c r="I91" s="4"/>
       <c r="J91" s="4"/>
@@ -5579,13 +5498,12 @@
       <c r="AB91" s="3"/>
       <c r="AC91" s="3"/>
       <c r="AD91" s="3"/>
-      <c r="AE91" s="3"/>
-    </row>
-    <row r="92" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="92" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B92" s="8" t="s">
+      <c r="B92" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C92" s="4"/>
@@ -5593,10 +5511,10 @@
       <c r="E92" s="4"/>
       <c r="F92" s="4"/>
       <c r="G92" s="4">
-        <v>754</v>
+        <v>1220</v>
       </c>
       <c r="H92" s="4">
-        <v>687</v>
+        <v>807</v>
       </c>
       <c r="I92" s="4"/>
       <c r="J92" s="4"/>
@@ -5626,13 +5544,12 @@
       <c r="AB92" s="3"/>
       <c r="AC92" s="3"/>
       <c r="AD92" s="3"/>
-      <c r="AE92" s="3"/>
-    </row>
-    <row r="93" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="93" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B93" s="8" t="s">
+      <c r="B93" s="4" t="s">
         <v>128</v>
       </c>
       <c r="C93" s="4"/>
@@ -5640,7 +5557,7 @@
       <c r="E93" s="4"/>
       <c r="F93" s="4"/>
       <c r="G93" s="4">
-        <v>688</v>
+        <v>814</v>
       </c>
       <c r="H93" s="4">
         <v>687</v>
@@ -5673,9 +5590,8 @@
       <c r="AB93" s="3"/>
       <c r="AC93" s="3"/>
       <c r="AD93" s="3"/>
-      <c r="AE93" s="3"/>
-    </row>
-    <row r="94" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="94" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
         <v>26</v>
       </c>
@@ -5687,10 +5603,10 @@
       <c r="E94" s="4"/>
       <c r="F94" s="4"/>
       <c r="G94" s="4">
-        <v>712</v>
+        <v>880</v>
       </c>
       <c r="H94" s="4">
-        <v>705</v>
+        <v>687</v>
       </c>
       <c r="I94" s="4"/>
       <c r="J94" s="4"/>
@@ -5710,11 +5626,9 @@
       </c>
       <c r="U94" s="6"/>
       <c r="V94" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="W94" s="3" t="s">
-        <v>131</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="W94" s="3"/>
       <c r="X94" s="3"/>
       <c r="Y94" s="3"/>
       <c r="Z94" s="3"/>
@@ -5722,24 +5636,23 @@
       <c r="AB94" s="3"/>
       <c r="AC94" s="3"/>
       <c r="AD94" s="3"/>
-      <c r="AE94" s="3"/>
-    </row>
-    <row r="95" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="95" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A95" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
       <c r="E95" s="4"/>
       <c r="F95" s="4"/>
       <c r="G95" s="4">
-        <v>688</v>
+        <v>814</v>
       </c>
       <c r="H95" s="4">
-        <v>747</v>
+        <v>687</v>
       </c>
       <c r="I95" s="4"/>
       <c r="J95" s="4"/>
@@ -5769,24 +5682,23 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-      <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="96" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
       <c r="E96" s="4"/>
       <c r="F96" s="4"/>
       <c r="G96" s="4">
-        <v>754</v>
+        <v>838</v>
       </c>
       <c r="H96" s="4">
-        <v>747</v>
+        <v>705</v>
       </c>
       <c r="I96" s="4"/>
       <c r="J96" s="4"/>
@@ -5806,9 +5718,11 @@
       </c>
       <c r="U96" s="6"/>
       <c r="V96" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="W96" s="3"/>
+        <v>132</v>
+      </c>
+      <c r="W96" s="3" t="s">
+        <v>133</v>
+      </c>
       <c r="X96" s="3"/>
       <c r="Y96" s="3"/>
       <c r="Z96" s="3"/>
@@ -5816,9 +5730,8 @@
       <c r="AB96" s="3"/>
       <c r="AC96" s="3"/>
       <c r="AD96" s="3"/>
-      <c r="AE96" s="3"/>
-    </row>
-    <row r="97" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="97" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
         <v>26</v>
       </c>
@@ -5830,10 +5743,10 @@
       <c r="E97" s="4"/>
       <c r="F97" s="4"/>
       <c r="G97" s="4">
-        <v>732</v>
+        <v>814</v>
       </c>
       <c r="H97" s="4">
-        <v>725</v>
+        <v>747</v>
       </c>
       <c r="I97" s="4"/>
       <c r="J97" s="4"/>
@@ -5853,11 +5766,9 @@
       </c>
       <c r="U97" s="6"/>
       <c r="V97" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="W97" s="3" t="s">
-        <v>131</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="W97" s="3"/>
       <c r="X97" s="3"/>
       <c r="Y97" s="3"/>
       <c r="Z97" s="3"/>
@@ -5865,13 +5776,12 @@
       <c r="AB97" s="3"/>
       <c r="AC97" s="3"/>
       <c r="AD97" s="3"/>
-      <c r="AE97" s="3"/>
-    </row>
-    <row r="98" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="98" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A98" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B98" s="4" t="s">
+      <c r="B98" s="8" t="s">
         <v>135</v>
       </c>
       <c r="C98" s="4"/>
@@ -5879,7 +5789,7 @@
       <c r="E98" s="4"/>
       <c r="F98" s="4"/>
       <c r="G98" s="4">
-        <v>754</v>
+        <v>880</v>
       </c>
       <c r="H98" s="4">
         <v>747</v>
@@ -5912,13 +5822,12 @@
       <c r="AB98" s="3"/>
       <c r="AC98" s="3"/>
       <c r="AD98" s="3"/>
-      <c r="AE98" s="3"/>
-    </row>
-    <row r="99" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="99" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A99" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B99" s="4" t="s">
+      <c r="B99" s="8" t="s">
         <v>136</v>
       </c>
       <c r="C99" s="4"/>
@@ -5926,10 +5835,10 @@
       <c r="E99" s="4"/>
       <c r="F99" s="4"/>
       <c r="G99" s="4">
-        <v>808</v>
+        <v>858</v>
       </c>
       <c r="H99" s="4">
-        <v>747</v>
+        <v>725</v>
       </c>
       <c r="I99" s="4"/>
       <c r="J99" s="4"/>
@@ -5949,9 +5858,11 @@
       </c>
       <c r="U99" s="6"/>
       <c r="V99" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="W99" s="3"/>
+        <v>132</v>
+      </c>
+      <c r="W99" s="3" t="s">
+        <v>133</v>
+      </c>
       <c r="X99" s="3"/>
       <c r="Y99" s="3"/>
       <c r="Z99" s="3"/>
@@ -5959,13 +5870,12 @@
       <c r="AB99" s="3"/>
       <c r="AC99" s="3"/>
       <c r="AD99" s="3"/>
-      <c r="AE99" s="3"/>
-    </row>
-    <row r="100" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="100" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A100" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B100" s="8" t="s">
+      <c r="B100" s="4" t="s">
         <v>137</v>
       </c>
       <c r="C100" s="4"/>
@@ -5973,7 +5883,7 @@
       <c r="E100" s="4"/>
       <c r="F100" s="4"/>
       <c r="G100" s="4">
-        <v>886</v>
+        <v>880</v>
       </c>
       <c r="H100" s="4">
         <v>747</v>
@@ -6006,13 +5916,12 @@
       <c r="AB100" s="3"/>
       <c r="AC100" s="3"/>
       <c r="AD100" s="3"/>
-      <c r="AE100" s="3"/>
-    </row>
-    <row r="101" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="101" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A101" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B101" s="8" t="s">
+      <c r="B101" s="4" t="s">
         <v>138</v>
       </c>
       <c r="C101" s="4"/>
@@ -6020,7 +5929,7 @@
       <c r="E101" s="4"/>
       <c r="F101" s="4"/>
       <c r="G101" s="4">
-        <v>964</v>
+        <v>934</v>
       </c>
       <c r="H101" s="4">
         <v>747</v>
@@ -6053,9 +5962,8 @@
       <c r="AB101" s="3"/>
       <c r="AC101" s="3"/>
       <c r="AD101" s="3"/>
-      <c r="AE101" s="3"/>
-    </row>
-    <row r="102" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="102" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A102" s="4" t="s">
         <v>26</v>
       </c>
@@ -6067,7 +5975,7 @@
       <c r="E102" s="4"/>
       <c r="F102" s="4"/>
       <c r="G102" s="4">
-        <v>808</v>
+        <v>1012</v>
       </c>
       <c r="H102" s="4">
         <v>747</v>
@@ -6100,9 +6008,8 @@
       <c r="AB102" s="3"/>
       <c r="AC102" s="3"/>
       <c r="AD102" s="3"/>
-      <c r="AE102" s="3"/>
-    </row>
-    <row r="103" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="103" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A103" s="4" t="s">
         <v>26</v>
       </c>
@@ -6114,10 +6021,10 @@
       <c r="E103" s="4"/>
       <c r="F103" s="4"/>
       <c r="G103" s="4">
-        <v>873</v>
+        <v>1090</v>
       </c>
       <c r="H103" s="4">
-        <v>761</v>
+        <v>747</v>
       </c>
       <c r="I103" s="4"/>
       <c r="J103" s="4"/>
@@ -6137,11 +6044,9 @@
       </c>
       <c r="U103" s="6"/>
       <c r="V103" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="W103" s="3" t="s">
-        <v>131</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="W103" s="3"/>
       <c r="X103" s="3"/>
       <c r="Y103" s="3"/>
       <c r="Z103" s="3"/>
@@ -6149,9 +6054,8 @@
       <c r="AB103" s="3"/>
       <c r="AC103" s="3"/>
       <c r="AD103" s="3"/>
-      <c r="AE103" s="3"/>
-    </row>
-    <row r="104" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="104" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A104" s="4" t="s">
         <v>26</v>
       </c>
@@ -6163,10 +6067,10 @@
       <c r="E104" s="4"/>
       <c r="F104" s="4"/>
       <c r="G104" s="4">
-        <v>901</v>
+        <v>934</v>
       </c>
       <c r="H104" s="4">
-        <v>761</v>
+        <v>747</v>
       </c>
       <c r="I104" s="4"/>
       <c r="J104" s="4"/>
@@ -6186,11 +6090,9 @@
       </c>
       <c r="U104" s="6"/>
       <c r="V104" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="W104" s="3" t="s">
-        <v>143</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="W104" s="3"/>
       <c r="X104" s="3"/>
       <c r="Y104" s="3"/>
       <c r="Z104" s="3"/>
@@ -6198,24 +6100,23 @@
       <c r="AB104" s="3"/>
       <c r="AC104" s="3"/>
       <c r="AD104" s="3"/>
-      <c r="AE104" s="3"/>
-    </row>
-    <row r="105" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="105" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
       <c r="E105" s="4"/>
       <c r="F105" s="4"/>
       <c r="G105" s="4">
-        <v>964</v>
+        <v>999</v>
       </c>
       <c r="H105" s="4">
-        <v>747</v>
+        <v>761</v>
       </c>
       <c r="I105" s="4"/>
       <c r="J105" s="4"/>
@@ -6235,9 +6136,11 @@
       </c>
       <c r="U105" s="6"/>
       <c r="V105" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="W105" s="3"/>
+        <v>132</v>
+      </c>
+      <c r="W105" s="3" t="s">
+        <v>133</v>
+      </c>
       <c r="X105" s="3"/>
       <c r="Y105" s="3"/>
       <c r="Z105" s="3"/>
@@ -6245,24 +6148,23 @@
       <c r="AB105" s="3"/>
       <c r="AC105" s="3"/>
       <c r="AD105" s="3"/>
-      <c r="AE105" s="3"/>
-    </row>
-    <row r="106" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="106" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B106" s="4" t="s">
-        <v>145</v>
+      <c r="B106" s="8" t="s">
+        <v>143</v>
       </c>
       <c r="C106" s="4"/>
       <c r="D106" s="4"/>
       <c r="E106" s="4"/>
       <c r="F106" s="4"/>
       <c r="G106" s="4">
-        <v>808</v>
+        <v>1027</v>
       </c>
       <c r="H106" s="4">
-        <v>807</v>
+        <v>761</v>
       </c>
       <c r="I106" s="4"/>
       <c r="J106" s="4"/>
@@ -6282,9 +6184,11 @@
       </c>
       <c r="U106" s="6"/>
       <c r="V106" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="W106" s="3"/>
+        <v>144</v>
+      </c>
+      <c r="W106" s="3" t="s">
+        <v>145</v>
+      </c>
       <c r="X106" s="3"/>
       <c r="Y106" s="3"/>
       <c r="Z106" s="3"/>
@@ -6292,9 +6196,8 @@
       <c r="AB106" s="3"/>
       <c r="AC106" s="3"/>
       <c r="AD106" s="3"/>
-      <c r="AE106" s="3"/>
-    </row>
-    <row r="107" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="107" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A107" s="4" t="s">
         <v>26</v>
       </c>
@@ -6306,10 +6209,10 @@
       <c r="E107" s="4"/>
       <c r="F107" s="4"/>
       <c r="G107" s="4">
-        <v>886</v>
+        <v>1090</v>
       </c>
       <c r="H107" s="4">
-        <v>807</v>
+        <v>747</v>
       </c>
       <c r="I107" s="4"/>
       <c r="J107" s="4"/>
@@ -6339,13 +6242,12 @@
       <c r="AB107" s="3"/>
       <c r="AC107" s="3"/>
       <c r="AD107" s="3"/>
-      <c r="AE107" s="3"/>
-    </row>
-    <row r="108" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="108" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B108" s="8" t="s">
+      <c r="B108" s="4" t="s">
         <v>147</v>
       </c>
       <c r="C108" s="4"/>
@@ -6353,7 +6255,7 @@
       <c r="E108" s="4"/>
       <c r="F108" s="4"/>
       <c r="G108" s="4">
-        <v>964</v>
+        <v>934</v>
       </c>
       <c r="H108" s="4">
         <v>807</v>
@@ -6386,9 +6288,8 @@
       <c r="AB108" s="3"/>
       <c r="AC108" s="3"/>
       <c r="AD108" s="3"/>
-      <c r="AE108" s="3"/>
-    </row>
-    <row r="109" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="109" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
         <v>26</v>
       </c>
@@ -6400,7 +6301,7 @@
       <c r="E109" s="4"/>
       <c r="F109" s="4"/>
       <c r="G109" s="4">
-        <v>808</v>
+        <v>1012</v>
       </c>
       <c r="H109" s="4">
         <v>807</v>
@@ -6433,9 +6334,8 @@
       <c r="AB109" s="3"/>
       <c r="AC109" s="3"/>
       <c r="AD109" s="3"/>
-      <c r="AE109" s="3"/>
-    </row>
-    <row r="110" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="110" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A110" s="4" t="s">
         <v>26</v>
       </c>
@@ -6447,10 +6347,10 @@
       <c r="E110" s="4"/>
       <c r="F110" s="4"/>
       <c r="G110" s="4">
-        <v>873</v>
+        <v>1090</v>
       </c>
       <c r="H110" s="4">
-        <v>789</v>
+        <v>807</v>
       </c>
       <c r="I110" s="4"/>
       <c r="J110" s="4"/>
@@ -6470,11 +6370,9 @@
       </c>
       <c r="U110" s="6"/>
       <c r="V110" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="W110" s="3" t="s">
-        <v>143</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="W110" s="3"/>
       <c r="X110" s="3"/>
       <c r="Y110" s="3"/>
       <c r="Z110" s="3"/>
@@ -6482,9 +6380,8 @@
       <c r="AB110" s="3"/>
       <c r="AC110" s="3"/>
       <c r="AD110" s="3"/>
-      <c r="AE110" s="3"/>
-    </row>
-    <row r="111" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="111" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A111" s="4" t="s">
         <v>26</v>
       </c>
@@ -6496,10 +6393,10 @@
       <c r="E111" s="4"/>
       <c r="F111" s="4"/>
       <c r="G111" s="4">
-        <v>901</v>
+        <v>934</v>
       </c>
       <c r="H111" s="4">
-        <v>789</v>
+        <v>807</v>
       </c>
       <c r="I111" s="4"/>
       <c r="J111" s="4"/>
@@ -6519,11 +6416,9 @@
       </c>
       <c r="U111" s="6"/>
       <c r="V111" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="W111" s="3" t="s">
-        <v>131</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="W111" s="3"/>
       <c r="X111" s="3"/>
       <c r="Y111" s="3"/>
       <c r="Z111" s="3"/>
@@ -6531,9 +6426,8 @@
       <c r="AB111" s="3"/>
       <c r="AC111" s="3"/>
       <c r="AD111" s="3"/>
-      <c r="AE111" s="3"/>
-    </row>
-    <row r="112" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="112" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A112" s="4" t="s">
         <v>26</v>
       </c>
@@ -6545,10 +6439,10 @@
       <c r="E112" s="4"/>
       <c r="F112" s="4"/>
       <c r="G112" s="4">
-        <v>964</v>
+        <v>999</v>
       </c>
       <c r="H112" s="4">
-        <v>807</v>
+        <v>789</v>
       </c>
       <c r="I112" s="4"/>
       <c r="J112" s="4"/>
@@ -6568,9 +6462,11 @@
       </c>
       <c r="U112" s="6"/>
       <c r="V112" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="W112" s="3"/>
+        <v>144</v>
+      </c>
+      <c r="W112" s="3" t="s">
+        <v>145</v>
+      </c>
       <c r="X112" s="3"/>
       <c r="Y112" s="3"/>
       <c r="Z112" s="3"/>
@@ -6578,13 +6474,12 @@
       <c r="AB112" s="3"/>
       <c r="AC112" s="3"/>
       <c r="AD112" s="3"/>
-      <c r="AE112" s="3"/>
-    </row>
-    <row r="113" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="113" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A113" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B113" s="4" t="s">
+      <c r="B113" s="8" t="s">
         <v>152</v>
       </c>
       <c r="C113" s="4"/>
@@ -6592,10 +6487,10 @@
       <c r="E113" s="4"/>
       <c r="F113" s="4"/>
       <c r="G113" s="4">
-        <v>1018</v>
+        <v>1027</v>
       </c>
       <c r="H113" s="4">
-        <v>687</v>
+        <v>789</v>
       </c>
       <c r="I113" s="4"/>
       <c r="J113" s="4"/>
@@ -6615,9 +6510,11 @@
       </c>
       <c r="U113" s="6"/>
       <c r="V113" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="W113" s="3"/>
+        <v>132</v>
+      </c>
+      <c r="W113" s="3" t="s">
+        <v>133</v>
+      </c>
       <c r="X113" s="3"/>
       <c r="Y113" s="3"/>
       <c r="Z113" s="3"/>
@@ -6625,13 +6522,12 @@
       <c r="AB113" s="3"/>
       <c r="AC113" s="3"/>
       <c r="AD113" s="3"/>
-      <c r="AE113" s="3"/>
-    </row>
-    <row r="114" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="114" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A114" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B114" s="4" t="s">
+      <c r="B114" s="8" t="s">
         <v>153</v>
       </c>
       <c r="C114" s="4"/>
@@ -6639,10 +6535,10 @@
       <c r="E114" s="4"/>
       <c r="F114" s="4"/>
       <c r="G114" s="4">
-        <v>1051</v>
+        <v>1090</v>
       </c>
       <c r="H114" s="4">
-        <v>687</v>
+        <v>807</v>
       </c>
       <c r="I114" s="4"/>
       <c r="J114" s="4"/>
@@ -6672,13 +6568,12 @@
       <c r="AB114" s="3"/>
       <c r="AC114" s="3"/>
       <c r="AD114" s="3"/>
-      <c r="AE114" s="3"/>
-    </row>
-    <row r="115" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="115" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A115" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B115" s="8" t="s">
+      <c r="B115" s="4" t="s">
         <v>154</v>
       </c>
       <c r="C115" s="4"/>
@@ -6686,7 +6581,7 @@
       <c r="E115" s="4"/>
       <c r="F115" s="4"/>
       <c r="G115" s="4">
-        <v>1084</v>
+        <v>1144</v>
       </c>
       <c r="H115" s="4">
         <v>687</v>
@@ -6719,9 +6614,8 @@
       <c r="AB115" s="3"/>
       <c r="AC115" s="3"/>
       <c r="AD115" s="3"/>
-      <c r="AE115" s="3"/>
-    </row>
-    <row r="116" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="116" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A116" s="4" t="s">
         <v>26</v>
       </c>
@@ -6733,7 +6627,7 @@
       <c r="E116" s="4"/>
       <c r="F116" s="4"/>
       <c r="G116" s="4">
-        <v>1018</v>
+        <v>1177</v>
       </c>
       <c r="H116" s="4">
         <v>687</v>
@@ -6766,9 +6660,8 @@
       <c r="AB116" s="3"/>
       <c r="AC116" s="3"/>
       <c r="AD116" s="3"/>
-      <c r="AE116" s="3"/>
-    </row>
-    <row r="117" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="117" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A117" s="4" t="s">
         <v>26</v>
       </c>
@@ -6780,10 +6673,10 @@
       <c r="E117" s="4"/>
       <c r="F117" s="4"/>
       <c r="G117" s="4">
-        <v>1038</v>
+        <v>1210</v>
       </c>
       <c r="H117" s="4">
-        <v>701</v>
+        <v>687</v>
       </c>
       <c r="I117" s="4"/>
       <c r="J117" s="4"/>
@@ -6803,11 +6696,9 @@
       </c>
       <c r="U117" s="6"/>
       <c r="V117" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="W117" s="3" t="s">
-        <v>131</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="W117" s="3"/>
       <c r="X117" s="3"/>
       <c r="Y117" s="3"/>
       <c r="Z117" s="3"/>
@@ -6815,13 +6706,12 @@
       <c r="AB117" s="3"/>
       <c r="AC117" s="3"/>
       <c r="AD117" s="3"/>
-      <c r="AE117" s="3"/>
-    </row>
-    <row r="118" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="118" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A118" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B118" s="8" t="s">
+      <c r="B118" s="4" t="s">
         <v>157</v>
       </c>
       <c r="C118" s="4"/>
@@ -6829,10 +6719,10 @@
       <c r="E118" s="4"/>
       <c r="F118" s="4"/>
       <c r="G118" s="4">
-        <v>1066</v>
+        <v>1144</v>
       </c>
       <c r="H118" s="4">
-        <v>701</v>
+        <v>687</v>
       </c>
       <c r="I118" s="4"/>
       <c r="J118" s="4"/>
@@ -6852,11 +6742,9 @@
       </c>
       <c r="U118" s="6"/>
       <c r="V118" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="W118" s="3" t="s">
-        <v>143</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="W118" s="3"/>
       <c r="X118" s="3"/>
       <c r="Y118" s="3"/>
       <c r="Z118" s="3"/>
@@ -6864,9 +6752,8 @@
       <c r="AB118" s="3"/>
       <c r="AC118" s="3"/>
       <c r="AD118" s="3"/>
-      <c r="AE118" s="3"/>
-    </row>
-    <row r="119" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="119" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A119" s="4" t="s">
         <v>26</v>
       </c>
@@ -6878,10 +6765,10 @@
       <c r="E119" s="4"/>
       <c r="F119" s="4"/>
       <c r="G119" s="4">
-        <v>1084</v>
+        <v>1164</v>
       </c>
       <c r="H119" s="4">
-        <v>687</v>
+        <v>701</v>
       </c>
       <c r="I119" s="4"/>
       <c r="J119" s="4"/>
@@ -6901,9 +6788,11 @@
       </c>
       <c r="U119" s="6"/>
       <c r="V119" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="W119" s="3"/>
+        <v>132</v>
+      </c>
+      <c r="W119" s="3" t="s">
+        <v>133</v>
+      </c>
       <c r="X119" s="3"/>
       <c r="Y119" s="3"/>
       <c r="Z119" s="3"/>
@@ -6911,13 +6800,12 @@
       <c r="AB119" s="3"/>
       <c r="AC119" s="3"/>
       <c r="AD119" s="3"/>
-      <c r="AE119" s="3"/>
-    </row>
-    <row r="120" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="120" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B120" s="4" t="s">
+      <c r="B120" s="8" t="s">
         <v>159</v>
       </c>
       <c r="C120" s="4"/>
@@ -6925,10 +6813,10 @@
       <c r="E120" s="4"/>
       <c r="F120" s="4"/>
       <c r="G120" s="4">
-        <v>1018</v>
+        <v>1192</v>
       </c>
       <c r="H120" s="4">
-        <v>747</v>
+        <v>701</v>
       </c>
       <c r="I120" s="4"/>
       <c r="J120" s="4"/>
@@ -6948,9 +6836,11 @@
       </c>
       <c r="U120" s="6"/>
       <c r="V120" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="W120" s="3"/>
+        <v>144</v>
+      </c>
+      <c r="W120" s="3" t="s">
+        <v>145</v>
+      </c>
       <c r="X120" s="3"/>
       <c r="Y120" s="3"/>
       <c r="Z120" s="3"/>
@@ -6958,9 +6848,8 @@
       <c r="AB120" s="3"/>
       <c r="AC120" s="3"/>
       <c r="AD120" s="3"/>
-      <c r="AE120" s="3"/>
-    </row>
-    <row r="121" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="121" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
         <v>26</v>
       </c>
@@ -6972,10 +6861,10 @@
       <c r="E121" s="4"/>
       <c r="F121" s="4"/>
       <c r="G121" s="4">
-        <v>1051</v>
+        <v>1210</v>
       </c>
       <c r="H121" s="4">
-        <v>747</v>
+        <v>687</v>
       </c>
       <c r="I121" s="4"/>
       <c r="J121" s="4"/>
@@ -7005,13 +6894,12 @@
       <c r="AB121" s="3"/>
       <c r="AC121" s="3"/>
       <c r="AD121" s="3"/>
-      <c r="AE121" s="3"/>
-    </row>
-    <row r="122" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="122" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A122" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B122" s="8" t="s">
+      <c r="B122" s="4" t="s">
         <v>161</v>
       </c>
       <c r="C122" s="4"/>
@@ -7019,7 +6907,7 @@
       <c r="E122" s="4"/>
       <c r="F122" s="4"/>
       <c r="G122" s="4">
-        <v>1084</v>
+        <v>1144</v>
       </c>
       <c r="H122" s="4">
         <v>747</v>
@@ -7052,9 +6940,8 @@
       <c r="AB122" s="3"/>
       <c r="AC122" s="3"/>
       <c r="AD122" s="3"/>
-      <c r="AE122" s="3"/>
-    </row>
-    <row r="123" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="123" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A123" s="4" t="s">
         <v>26</v>
       </c>
@@ -7066,7 +6953,7 @@
       <c r="E123" s="4"/>
       <c r="F123" s="4"/>
       <c r="G123" s="4">
-        <v>1018</v>
+        <v>1177</v>
       </c>
       <c r="H123" s="4">
         <v>747</v>
@@ -7099,9 +6986,8 @@
       <c r="AB123" s="3"/>
       <c r="AC123" s="3"/>
       <c r="AD123" s="3"/>
-      <c r="AE123" s="3"/>
-    </row>
-    <row r="124" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="124" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A124" s="4" t="s">
         <v>26</v>
       </c>
@@ -7113,10 +6999,10 @@
       <c r="E124" s="4"/>
       <c r="F124" s="4"/>
       <c r="G124" s="4">
-        <v>1038</v>
+        <v>1210</v>
       </c>
       <c r="H124" s="4">
-        <v>729</v>
+        <v>747</v>
       </c>
       <c r="I124" s="4"/>
       <c r="J124" s="4"/>
@@ -7136,11 +7022,9 @@
       </c>
       <c r="U124" s="6"/>
       <c r="V124" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="W124" s="3" t="s">
-        <v>143</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="W124" s="3"/>
       <c r="X124" s="3"/>
       <c r="Y124" s="3"/>
       <c r="Z124" s="3"/>
@@ -7148,9 +7032,8 @@
       <c r="AB124" s="3"/>
       <c r="AC124" s="3"/>
       <c r="AD124" s="3"/>
-      <c r="AE124" s="3"/>
-    </row>
-    <row r="125" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="125" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A125" s="4" t="s">
         <v>26</v>
       </c>
@@ -7162,10 +7045,10 @@
       <c r="E125" s="4"/>
       <c r="F125" s="4"/>
       <c r="G125" s="4">
-        <v>1066</v>
+        <v>1144</v>
       </c>
       <c r="H125" s="4">
-        <v>729</v>
+        <v>747</v>
       </c>
       <c r="I125" s="4"/>
       <c r="J125" s="4"/>
@@ -7185,11 +7068,9 @@
       </c>
       <c r="U125" s="6"/>
       <c r="V125" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="W125" s="3" t="s">
-        <v>131</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="W125" s="3"/>
       <c r="X125" s="3"/>
       <c r="Y125" s="3"/>
       <c r="Z125" s="3"/>
@@ -7197,9 +7078,8 @@
       <c r="AB125" s="3"/>
       <c r="AC125" s="3"/>
       <c r="AD125" s="3"/>
-      <c r="AE125" s="3"/>
-    </row>
-    <row r="126" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="126" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A126" s="4" t="s">
         <v>26</v>
       </c>
@@ -7211,10 +7091,10 @@
       <c r="E126" s="4"/>
       <c r="F126" s="4"/>
       <c r="G126" s="4">
-        <v>1084</v>
+        <v>1164</v>
       </c>
       <c r="H126" s="4">
-        <v>747</v>
+        <v>729</v>
       </c>
       <c r="I126" s="4"/>
       <c r="J126" s="4"/>
@@ -7234,9 +7114,11 @@
       </c>
       <c r="U126" s="6"/>
       <c r="V126" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="W126" s="3"/>
+        <v>144</v>
+      </c>
+      <c r="W126" s="3" t="s">
+        <v>145</v>
+      </c>
       <c r="X126" s="3"/>
       <c r="Y126" s="3"/>
       <c r="Z126" s="3"/>
@@ -7244,13 +7126,12 @@
       <c r="AB126" s="3"/>
       <c r="AC126" s="3"/>
       <c r="AD126" s="3"/>
-      <c r="AE126" s="3"/>
-    </row>
-    <row r="127" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="127" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A127" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B127" s="4" t="s">
+      <c r="B127" s="8" t="s">
         <v>166</v>
       </c>
       <c r="C127" s="4"/>
@@ -7258,10 +7139,10 @@
       <c r="E127" s="4"/>
       <c r="F127" s="4"/>
       <c r="G127" s="4">
-        <v>1112</v>
+        <v>1192</v>
       </c>
       <c r="H127" s="4">
-        <v>627</v>
+        <v>729</v>
       </c>
       <c r="I127" s="4"/>
       <c r="J127" s="4"/>
@@ -7281,9 +7162,11 @@
       </c>
       <c r="U127" s="6"/>
       <c r="V127" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="W127" s="3"/>
+        <v>132</v>
+      </c>
+      <c r="W127" s="3" t="s">
+        <v>133</v>
+      </c>
       <c r="X127" s="3"/>
       <c r="Y127" s="3"/>
       <c r="Z127" s="3"/>
@@ -7291,13 +7174,12 @@
       <c r="AB127" s="3"/>
       <c r="AC127" s="3"/>
       <c r="AD127" s="3"/>
-      <c r="AE127" s="3"/>
-    </row>
-    <row r="128" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="128" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A128" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B128" s="4" t="s">
+      <c r="B128" s="8" t="s">
         <v>167</v>
       </c>
       <c r="C128" s="4"/>
@@ -7305,10 +7187,10 @@
       <c r="E128" s="4"/>
       <c r="F128" s="4"/>
       <c r="G128" s="4">
-        <v>1145</v>
+        <v>1210</v>
       </c>
       <c r="H128" s="4">
-        <v>627</v>
+        <v>747</v>
       </c>
       <c r="I128" s="4"/>
       <c r="J128" s="4"/>
@@ -7338,9 +7220,8 @@
       <c r="AB128" s="3"/>
       <c r="AC128" s="3"/>
       <c r="AD128" s="3"/>
-      <c r="AE128" s="3"/>
-    </row>
-    <row r="129" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="129" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A129" s="4" t="s">
         <v>26</v>
       </c>
@@ -7352,7 +7233,7 @@
       <c r="E129" s="4"/>
       <c r="F129" s="4"/>
       <c r="G129" s="4">
-        <v>1178</v>
+        <v>1238</v>
       </c>
       <c r="H129" s="4">
         <v>627</v>
@@ -7385,9 +7266,8 @@
       <c r="AB129" s="3"/>
       <c r="AC129" s="3"/>
       <c r="AD129" s="3"/>
-      <c r="AE129" s="3"/>
-    </row>
-    <row r="130" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="130" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A130" s="4" t="s">
         <v>26</v>
       </c>
@@ -7399,7 +7279,7 @@
       <c r="E130" s="4"/>
       <c r="F130" s="4"/>
       <c r="G130" s="4">
-        <v>1112</v>
+        <v>1271</v>
       </c>
       <c r="H130" s="4">
         <v>627</v>
@@ -7432,9 +7312,8 @@
       <c r="AB130" s="3"/>
       <c r="AC130" s="3"/>
       <c r="AD130" s="3"/>
-      <c r="AE130" s="3"/>
-    </row>
-    <row r="131" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="131" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A131" s="4" t="s">
         <v>26</v>
       </c>
@@ -7446,10 +7325,10 @@
       <c r="E131" s="4"/>
       <c r="F131" s="4"/>
       <c r="G131" s="4">
-        <v>1132</v>
+        <v>1304</v>
       </c>
       <c r="H131" s="4">
-        <v>641</v>
+        <v>627</v>
       </c>
       <c r="I131" s="4"/>
       <c r="J131" s="4"/>
@@ -7469,11 +7348,9 @@
       </c>
       <c r="U131" s="6"/>
       <c r="V131" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="W131" s="9" t="s">
-        <v>131</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="W131" s="3"/>
       <c r="X131" s="3"/>
       <c r="Y131" s="3"/>
       <c r="Z131" s="3"/>
@@ -7481,9 +7358,8 @@
       <c r="AB131" s="3"/>
       <c r="AC131" s="3"/>
       <c r="AD131" s="3"/>
-      <c r="AE131" s="3"/>
-    </row>
-    <row r="132" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="132" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A132" s="4" t="s">
         <v>26</v>
       </c>
@@ -7495,10 +7371,10 @@
       <c r="E132" s="4"/>
       <c r="F132" s="4"/>
       <c r="G132" s="4">
-        <v>1160</v>
+        <v>1238</v>
       </c>
       <c r="H132" s="4">
-        <v>641</v>
+        <v>627</v>
       </c>
       <c r="I132" s="4"/>
       <c r="J132" s="4"/>
@@ -7518,11 +7394,9 @@
       </c>
       <c r="U132" s="6"/>
       <c r="V132" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="W132" s="9" t="s">
-        <v>143</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="W132" s="3"/>
       <c r="X132" s="3"/>
       <c r="Y132" s="3"/>
       <c r="Z132" s="3"/>
@@ -7530,9 +7404,8 @@
       <c r="AB132" s="3"/>
       <c r="AC132" s="3"/>
       <c r="AD132" s="3"/>
-      <c r="AE132" s="3"/>
-    </row>
-    <row r="133" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="133" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A133" s="4" t="s">
         <v>26</v>
       </c>
@@ -7544,10 +7417,10 @@
       <c r="E133" s="4"/>
       <c r="F133" s="4"/>
       <c r="G133" s="4">
-        <v>1178</v>
+        <v>1258</v>
       </c>
       <c r="H133" s="4">
-        <v>627</v>
+        <v>641</v>
       </c>
       <c r="I133" s="4"/>
       <c r="J133" s="4"/>
@@ -7567,9 +7440,11 @@
       </c>
       <c r="U133" s="6"/>
       <c r="V133" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="W133" s="3"/>
+        <v>132</v>
+      </c>
+      <c r="W133" s="9" t="s">
+        <v>133</v>
+      </c>
       <c r="X133" s="3"/>
       <c r="Y133" s="3"/>
       <c r="Z133" s="3"/>
@@ -7577,9 +7452,8 @@
       <c r="AB133" s="3"/>
       <c r="AC133" s="3"/>
       <c r="AD133" s="3"/>
-      <c r="AE133" s="3"/>
-    </row>
-    <row r="134" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="134" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A134" s="4" t="s">
         <v>26</v>
       </c>
@@ -7591,10 +7465,10 @@
       <c r="E134" s="4"/>
       <c r="F134" s="4"/>
       <c r="G134" s="4">
-        <v>1112</v>
+        <v>1286</v>
       </c>
       <c r="H134" s="4">
-        <v>687</v>
+        <v>641</v>
       </c>
       <c r="I134" s="4"/>
       <c r="J134" s="4"/>
@@ -7614,9 +7488,11 @@
       </c>
       <c r="U134" s="6"/>
       <c r="V134" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="W134" s="3"/>
+        <v>144</v>
+      </c>
+      <c r="W134" s="9" t="s">
+        <v>145</v>
+      </c>
       <c r="X134" s="3"/>
       <c r="Y134" s="3"/>
       <c r="Z134" s="3"/>
@@ -7624,9 +7500,8 @@
       <c r="AB134" s="3"/>
       <c r="AC134" s="3"/>
       <c r="AD134" s="3"/>
-      <c r="AE134" s="3"/>
-    </row>
-    <row r="135" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="135" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A135" s="4" t="s">
         <v>26</v>
       </c>
@@ -7638,10 +7513,10 @@
       <c r="E135" s="4"/>
       <c r="F135" s="4"/>
       <c r="G135" s="4">
-        <v>1145</v>
+        <v>1304</v>
       </c>
       <c r="H135" s="4">
-        <v>687</v>
+        <v>627</v>
       </c>
       <c r="I135" s="4"/>
       <c r="J135" s="4"/>
@@ -7671,9 +7546,8 @@
       <c r="AB135" s="3"/>
       <c r="AC135" s="3"/>
       <c r="AD135" s="3"/>
-      <c r="AE135" s="3"/>
-    </row>
-    <row r="136" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="136" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A136" s="4" t="s">
         <v>26</v>
       </c>
@@ -7685,7 +7559,7 @@
       <c r="E136" s="4"/>
       <c r="F136" s="4"/>
       <c r="G136" s="4">
-        <v>1178</v>
+        <v>1238</v>
       </c>
       <c r="H136" s="4">
         <v>687</v>
@@ -7718,9 +7592,8 @@
       <c r="AB136" s="3"/>
       <c r="AC136" s="3"/>
       <c r="AD136" s="3"/>
-      <c r="AE136" s="3"/>
-    </row>
-    <row r="137" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="137" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A137" s="4" t="s">
         <v>26</v>
       </c>
@@ -7732,7 +7605,7 @@
       <c r="E137" s="4"/>
       <c r="F137" s="4"/>
       <c r="G137" s="4">
-        <v>1112</v>
+        <v>1271</v>
       </c>
       <c r="H137" s="4">
         <v>687</v>
@@ -7765,9 +7638,8 @@
       <c r="AB137" s="3"/>
       <c r="AC137" s="3"/>
       <c r="AD137" s="3"/>
-      <c r="AE137" s="3"/>
-    </row>
-    <row r="138" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="138" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A138" s="4" t="s">
         <v>26</v>
       </c>
@@ -7779,10 +7651,10 @@
       <c r="E138" s="4"/>
       <c r="F138" s="4"/>
       <c r="G138" s="4">
-        <v>1132</v>
+        <v>1304</v>
       </c>
       <c r="H138" s="4">
-        <v>669</v>
+        <v>687</v>
       </c>
       <c r="I138" s="4"/>
       <c r="J138" s="4"/>
@@ -7802,11 +7674,9 @@
       </c>
       <c r="U138" s="6"/>
       <c r="V138" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="W138" s="9" t="s">
-        <v>143</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="W138" s="3"/>
       <c r="X138" s="3"/>
       <c r="Y138" s="3"/>
       <c r="Z138" s="3"/>
@@ -7814,9 +7684,8 @@
       <c r="AB138" s="3"/>
       <c r="AC138" s="3"/>
       <c r="AD138" s="3"/>
-      <c r="AE138" s="3"/>
-    </row>
-    <row r="139" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="139" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A139" s="4" t="s">
         <v>26</v>
       </c>
@@ -7828,10 +7697,10 @@
       <c r="E139" s="4"/>
       <c r="F139" s="4"/>
       <c r="G139" s="4">
-        <v>1160</v>
+        <v>1238</v>
       </c>
       <c r="H139" s="4">
-        <v>669</v>
+        <v>687</v>
       </c>
       <c r="I139" s="4"/>
       <c r="J139" s="4"/>
@@ -7851,11 +7720,9 @@
       </c>
       <c r="U139" s="6"/>
       <c r="V139" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="W139" s="9" t="s">
-        <v>131</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="W139" s="3"/>
       <c r="X139" s="3"/>
       <c r="Y139" s="3"/>
       <c r="Z139" s="3"/>
@@ -7863,9 +7730,8 @@
       <c r="AB139" s="3"/>
       <c r="AC139" s="3"/>
       <c r="AD139" s="3"/>
-      <c r="AE139" s="3"/>
-    </row>
-    <row r="140" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="140" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A140" s="4" t="s">
         <v>26</v>
       </c>
@@ -7877,10 +7743,10 @@
       <c r="E140" s="4"/>
       <c r="F140" s="4"/>
       <c r="G140" s="4">
-        <v>1178</v>
+        <v>1258</v>
       </c>
       <c r="H140" s="4">
-        <v>687</v>
+        <v>669</v>
       </c>
       <c r="I140" s="4"/>
       <c r="J140" s="4"/>
@@ -7900,9 +7766,11 @@
       </c>
       <c r="U140" s="6"/>
       <c r="V140" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="W140" s="3"/>
+        <v>144</v>
+      </c>
+      <c r="W140" s="9" t="s">
+        <v>145</v>
+      </c>
       <c r="X140" s="3"/>
       <c r="Y140" s="3"/>
       <c r="Z140" s="3"/>
@@ -7910,9 +7778,8 @@
       <c r="AB140" s="3"/>
       <c r="AC140" s="3"/>
       <c r="AD140" s="3"/>
-      <c r="AE140" s="3"/>
-    </row>
-    <row r="141" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="141" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A141" s="4" t="s">
         <v>26</v>
       </c>
@@ -7924,10 +7791,10 @@
       <c r="E141" s="4"/>
       <c r="F141" s="4"/>
       <c r="G141" s="4">
-        <v>578</v>
+        <v>1286</v>
       </c>
       <c r="H141" s="4">
-        <v>687</v>
+        <v>669</v>
       </c>
       <c r="I141" s="4"/>
       <c r="J141" s="4"/>
@@ -7947,9 +7814,11 @@
       </c>
       <c r="U141" s="6"/>
       <c r="V141" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="W141" s="3"/>
+        <v>132</v>
+      </c>
+      <c r="W141" s="9" t="s">
+        <v>133</v>
+      </c>
       <c r="X141" s="3"/>
       <c r="Y141" s="3"/>
       <c r="Z141" s="3"/>
@@ -7957,9 +7826,8 @@
       <c r="AB141" s="3"/>
       <c r="AC141" s="3"/>
       <c r="AD141" s="3"/>
-      <c r="AE141" s="3"/>
-    </row>
-    <row r="142" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="142" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A142" s="4" t="s">
         <v>26</v>
       </c>
@@ -7971,7 +7839,7 @@
       <c r="E142" s="4"/>
       <c r="F142" s="4"/>
       <c r="G142" s="4">
-        <v>660</v>
+        <v>1304</v>
       </c>
       <c r="H142" s="4">
         <v>687</v>
@@ -8004,9 +7872,8 @@
       <c r="AB142" s="3"/>
       <c r="AC142" s="3"/>
       <c r="AD142" s="3"/>
-      <c r="AE142" s="3"/>
-    </row>
-    <row r="143" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="143" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A143" s="4" t="s">
         <v>26</v>
       </c>
@@ -8018,7 +7885,7 @@
       <c r="E143" s="4"/>
       <c r="F143" s="4"/>
       <c r="G143" s="4">
-        <v>782</v>
+        <v>578</v>
       </c>
       <c r="H143" s="4">
         <v>687</v>
@@ -8051,9 +7918,8 @@
       <c r="AB143" s="3"/>
       <c r="AC143" s="3"/>
       <c r="AD143" s="3"/>
-      <c r="AE143" s="3"/>
-    </row>
-    <row r="144" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="144" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A144" s="4" t="s">
         <v>26</v>
       </c>
@@ -8065,7 +7931,7 @@
       <c r="E144" s="4"/>
       <c r="F144" s="4"/>
       <c r="G144" s="4">
-        <v>990</v>
+        <v>786</v>
       </c>
       <c r="H144" s="4">
         <v>687</v>
@@ -8098,9 +7964,8 @@
       <c r="AB144" s="3"/>
       <c r="AC144" s="3"/>
       <c r="AD144" s="3"/>
-      <c r="AE144" s="3"/>
-    </row>
-    <row r="145" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="145" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A145" s="4" t="s">
         <v>26</v>
       </c>
@@ -8112,10 +7977,10 @@
       <c r="E145" s="4"/>
       <c r="F145" s="4"/>
       <c r="G145" s="4">
-        <v>1206</v>
+        <v>908</v>
       </c>
       <c r="H145" s="4">
-        <v>627</v>
+        <v>687</v>
       </c>
       <c r="I145" s="4"/>
       <c r="J145" s="4"/>
@@ -8145,9 +8010,8 @@
       <c r="AB145" s="3"/>
       <c r="AC145" s="3"/>
       <c r="AD145" s="3"/>
-      <c r="AE145" s="3"/>
-    </row>
-    <row r="146" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="146" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A146" s="4" t="s">
         <v>26</v>
       </c>
@@ -8159,10 +8023,10 @@
       <c r="E146" s="4"/>
       <c r="F146" s="4"/>
       <c r="G146" s="4">
-        <v>1414</v>
+        <v>1116</v>
       </c>
       <c r="H146" s="4">
-        <v>627</v>
+        <v>687</v>
       </c>
       <c r="I146" s="4"/>
       <c r="J146" s="4"/>
@@ -8192,9 +8056,8 @@
       <c r="AB146" s="3"/>
       <c r="AC146" s="3"/>
       <c r="AD146" s="3"/>
-      <c r="AE146" s="3"/>
-    </row>
-    <row r="147" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="147" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A147" s="4" t="s">
         <v>26</v>
       </c>
@@ -8206,10 +8069,10 @@
       <c r="E147" s="4"/>
       <c r="F147" s="4"/>
       <c r="G147" s="4">
-        <v>1206</v>
+        <v>1332</v>
       </c>
       <c r="H147" s="4">
-        <v>687</v>
+        <v>627</v>
       </c>
       <c r="I147" s="4"/>
       <c r="J147" s="4"/>
@@ -8239,9 +8102,8 @@
       <c r="AB147" s="3"/>
       <c r="AC147" s="3"/>
       <c r="AD147" s="3"/>
-      <c r="AE147" s="3"/>
-    </row>
-    <row r="148" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="148" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A148" s="4" t="s">
         <v>26</v>
       </c>
@@ -8253,10 +8115,10 @@
       <c r="E148" s="4"/>
       <c r="F148" s="4"/>
       <c r="G148" s="4">
-        <v>1414</v>
+        <v>1540</v>
       </c>
       <c r="H148" s="4">
-        <v>687</v>
+        <v>627</v>
       </c>
       <c r="I148" s="4"/>
       <c r="J148" s="4"/>
@@ -8286,9 +8148,8 @@
       <c r="AB148" s="3"/>
       <c r="AC148" s="3"/>
       <c r="AD148" s="3"/>
-      <c r="AE148" s="3"/>
-    </row>
-    <row r="149" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="149" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A149" s="4" t="s">
         <v>26</v>
       </c>
@@ -8300,10 +8161,10 @@
       <c r="E149" s="4"/>
       <c r="F149" s="4"/>
       <c r="G149" s="4">
-        <v>1252</v>
+        <v>1332</v>
       </c>
       <c r="H149" s="4">
-        <v>807</v>
+        <v>687</v>
       </c>
       <c r="I149" s="4"/>
       <c r="J149" s="4"/>
@@ -8333,9 +8194,8 @@
       <c r="AB149" s="3"/>
       <c r="AC149" s="3"/>
       <c r="AD149" s="3"/>
-      <c r="AE149" s="3"/>
-    </row>
-    <row r="150" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="150" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A150" s="4" t="s">
         <v>26</v>
       </c>
@@ -8347,10 +8207,10 @@
       <c r="E150" s="4"/>
       <c r="F150" s="4"/>
       <c r="G150" s="4">
-        <v>1332</v>
+        <v>1540</v>
       </c>
       <c r="H150" s="4">
-        <v>867</v>
+        <v>687</v>
       </c>
       <c r="I150" s="4"/>
       <c r="J150" s="4"/>
@@ -8380,9 +8240,8 @@
       <c r="AB150" s="3"/>
       <c r="AC150" s="3"/>
       <c r="AD150" s="3"/>
-      <c r="AE150" s="3"/>
-    </row>
-    <row r="151" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="151" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A151" s="4" t="s">
         <v>26</v>
       </c>
@@ -8394,10 +8253,10 @@
       <c r="E151" s="4"/>
       <c r="F151" s="4"/>
       <c r="G151" s="4">
-        <v>1367</v>
+        <v>1270</v>
       </c>
       <c r="H151" s="4">
-        <v>867</v>
+        <v>807</v>
       </c>
       <c r="I151" s="4"/>
       <c r="J151" s="4"/>
@@ -8427,9 +8286,8 @@
       <c r="AB151" s="3"/>
       <c r="AC151" s="3"/>
       <c r="AD151" s="3"/>
-      <c r="AE151" s="3"/>
-    </row>
-    <row r="152" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="152" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A152" s="4" t="s">
         <v>26</v>
       </c>
@@ -8441,7 +8299,7 @@
       <c r="E152" s="4"/>
       <c r="F152" s="4"/>
       <c r="G152" s="4">
-        <v>1428</v>
+        <v>1337</v>
       </c>
       <c r="H152" s="4">
         <v>867</v>
@@ -8474,9 +8332,8 @@
       <c r="AB152" s="3"/>
       <c r="AC152" s="3"/>
       <c r="AD152" s="3"/>
-      <c r="AE152" s="3"/>
-    </row>
-    <row r="153" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="153" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A153" s="4" t="s">
         <v>26</v>
       </c>
@@ -8521,9 +8378,8 @@
       <c r="AB153" s="3"/>
       <c r="AC153" s="3"/>
       <c r="AD153" s="3"/>
-      <c r="AE153" s="3"/>
-    </row>
-    <row r="154" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="154" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A154" s="4" t="s">
         <v>26</v>
       </c>
@@ -8535,10 +8391,10 @@
       <c r="E154" s="4"/>
       <c r="F154" s="4"/>
       <c r="G154" s="4">
-        <v>1379</v>
+        <v>1428</v>
       </c>
       <c r="H154" s="4">
-        <v>847</v>
+        <v>867</v>
       </c>
       <c r="I154" s="4"/>
       <c r="J154" s="4"/>
@@ -8558,11 +8414,9 @@
       </c>
       <c r="U154" s="6"/>
       <c r="V154" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="W154" s="9" t="s">
-        <v>85</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="W154" s="3"/>
       <c r="X154" s="3"/>
       <c r="Y154" s="3"/>
       <c r="Z154" s="3"/>
@@ -8570,9 +8424,8 @@
       <c r="AB154" s="3"/>
       <c r="AC154" s="3"/>
       <c r="AD154" s="3"/>
-      <c r="AE154" s="3"/>
-    </row>
-    <row r="155" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="155" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A155" s="4" t="s">
         <v>26</v>
       </c>
@@ -8587,7 +8440,7 @@
         <v>1367</v>
       </c>
       <c r="H155" s="4">
-        <v>807</v>
+        <v>867</v>
       </c>
       <c r="I155" s="4"/>
       <c r="J155" s="4"/>
@@ -8617,9 +8470,8 @@
       <c r="AB155" s="3"/>
       <c r="AC155" s="3"/>
       <c r="AD155" s="3"/>
-      <c r="AE155" s="3"/>
-    </row>
-    <row r="156" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="156" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A156" s="4" t="s">
         <v>26</v>
       </c>
@@ -8631,10 +8483,10 @@
       <c r="E156" s="4"/>
       <c r="F156" s="4"/>
       <c r="G156" s="4">
-        <v>1428</v>
+        <v>1379</v>
       </c>
       <c r="H156" s="4">
-        <v>807</v>
+        <v>847</v>
       </c>
       <c r="I156" s="4"/>
       <c r="J156" s="4"/>
@@ -8654,9 +8506,11 @@
       </c>
       <c r="U156" s="6"/>
       <c r="V156" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="W156" s="3"/>
+        <v>84</v>
+      </c>
+      <c r="W156" s="9" t="s">
+        <v>85</v>
+      </c>
       <c r="X156" s="3"/>
       <c r="Y156" s="3"/>
       <c r="Z156" s="3"/>
@@ -8664,9 +8518,8 @@
       <c r="AB156" s="3"/>
       <c r="AC156" s="3"/>
       <c r="AD156" s="3"/>
-      <c r="AE156" s="3"/>
-    </row>
-    <row r="157" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="157" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A157" s="4" t="s">
         <v>26</v>
       </c>
@@ -8677,11 +8530,11 @@
       <c r="D157" s="4"/>
       <c r="E157" s="4"/>
       <c r="F157" s="4"/>
-      <c r="G157" s="10">
-        <v>1389</v>
+      <c r="G157" s="4">
+        <v>1367</v>
       </c>
       <c r="H157" s="4">
-        <v>822</v>
+        <v>807</v>
       </c>
       <c r="I157" s="4"/>
       <c r="J157" s="4"/>
@@ -8701,11 +8554,9 @@
       </c>
       <c r="U157" s="6"/>
       <c r="V157" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="W157" s="9" t="s">
-        <v>85</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="W157" s="3"/>
       <c r="X157" s="3"/>
       <c r="Y157" s="3"/>
       <c r="Z157" s="3"/>
@@ -8713,9 +8564,8 @@
       <c r="AB157" s="3"/>
       <c r="AC157" s="3"/>
       <c r="AD157" s="3"/>
-      <c r="AE157" s="3"/>
-    </row>
-    <row r="158" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="158" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A158" s="4" t="s">
         <v>26</v>
       </c>
@@ -8760,9 +8610,8 @@
       <c r="AB158" s="3"/>
       <c r="AC158" s="3"/>
       <c r="AD158" s="3"/>
-      <c r="AE158" s="3"/>
-    </row>
-    <row r="159" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="159" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A159" s="4" t="s">
         <v>26</v>
       </c>
@@ -8773,11 +8622,11 @@
       <c r="D159" s="4"/>
       <c r="E159" s="4"/>
       <c r="F159" s="4"/>
-      <c r="G159" s="4">
-        <v>1484</v>
+      <c r="G159" s="10">
+        <v>1389</v>
       </c>
       <c r="H159" s="4">
-        <v>807</v>
+        <v>822</v>
       </c>
       <c r="I159" s="4"/>
       <c r="J159" s="4"/>
@@ -8797,9 +8646,11 @@
       </c>
       <c r="U159" s="6"/>
       <c r="V159" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="W159" s="3"/>
+        <v>84</v>
+      </c>
+      <c r="W159" s="9" t="s">
+        <v>85</v>
+      </c>
       <c r="X159" s="3"/>
       <c r="Y159" s="3"/>
       <c r="Z159" s="3"/>
@@ -8807,9 +8658,8 @@
       <c r="AB159" s="3"/>
       <c r="AC159" s="3"/>
       <c r="AD159" s="3"/>
-      <c r="AE159" s="3"/>
-    </row>
-    <row r="160" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="160" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A160" s="4" t="s">
         <v>26</v>
       </c>
@@ -8821,7 +8671,7 @@
       <c r="E160" s="4"/>
       <c r="F160" s="4"/>
       <c r="G160" s="4">
-        <v>1566</v>
+        <v>1428</v>
       </c>
       <c r="H160" s="4">
         <v>807</v>
@@ -8854,9 +8704,8 @@
       <c r="AB160" s="3"/>
       <c r="AC160" s="3"/>
       <c r="AD160" s="3"/>
-      <c r="AE160" s="3"/>
-    </row>
-    <row r="161" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="161" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A161" s="4" t="s">
         <v>26</v>
       </c>
@@ -8871,7 +8720,7 @@
         <v>1484</v>
       </c>
       <c r="H161" s="4">
-        <v>867</v>
+        <v>807</v>
       </c>
       <c r="I161" s="4"/>
       <c r="J161" s="4"/>
@@ -8901,9 +8750,8 @@
       <c r="AB161" s="3"/>
       <c r="AC161" s="3"/>
       <c r="AD161" s="3"/>
-      <c r="AE161" s="3"/>
-    </row>
-    <row r="162" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="162" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A162" s="4" t="s">
         <v>26</v>
       </c>
@@ -8918,7 +8766,7 @@
         <v>1566</v>
       </c>
       <c r="H162" s="4">
-        <v>867</v>
+        <v>807</v>
       </c>
       <c r="I162" s="4"/>
       <c r="J162" s="4"/>
@@ -8948,9 +8796,8 @@
       <c r="AB162" s="3"/>
       <c r="AC162" s="3"/>
       <c r="AD162" s="3"/>
-      <c r="AE162" s="3"/>
-    </row>
-    <row r="163" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="163" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A163" s="4" t="s">
         <v>26</v>
       </c>
@@ -8962,7 +8809,7 @@
       <c r="E163" s="4"/>
       <c r="F163" s="4"/>
       <c r="G163" s="4">
-        <v>1627</v>
+        <v>1484</v>
       </c>
       <c r="H163" s="4">
         <v>867</v>
@@ -8995,9 +8842,8 @@
       <c r="AB163" s="3"/>
       <c r="AC163" s="3"/>
       <c r="AD163" s="3"/>
-      <c r="AE163" s="3"/>
-    </row>
-    <row r="164" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="164" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A164" s="4" t="s">
         <v>26</v>
       </c>
@@ -9009,10 +8855,10 @@
       <c r="E164" s="4"/>
       <c r="F164" s="4"/>
       <c r="G164" s="4">
-        <v>1627</v>
+        <v>1566</v>
       </c>
       <c r="H164" s="4">
-        <v>807</v>
+        <v>867</v>
       </c>
       <c r="I164" s="4"/>
       <c r="J164" s="4"/>
@@ -9042,9 +8888,8 @@
       <c r="AB164" s="3"/>
       <c r="AC164" s="3"/>
       <c r="AD164" s="3"/>
-      <c r="AE164" s="3"/>
-    </row>
-    <row r="165" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="165" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A165" s="4" t="s">
         <v>26</v>
       </c>
@@ -9056,10 +8901,10 @@
       <c r="E165" s="4"/>
       <c r="F165" s="4"/>
       <c r="G165" s="4">
-        <v>1652</v>
+        <v>1627</v>
       </c>
       <c r="H165" s="4">
-        <v>807</v>
+        <v>867</v>
       </c>
       <c r="I165" s="4"/>
       <c r="J165" s="4"/>
@@ -9089,9 +8934,8 @@
       <c r="AB165" s="3"/>
       <c r="AC165" s="3"/>
       <c r="AD165" s="3"/>
-      <c r="AE165" s="3"/>
-    </row>
-    <row r="166" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="166" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A166" s="4" t="s">
         <v>26</v>
       </c>
@@ -9103,7 +8947,7 @@
       <c r="E166" s="4"/>
       <c r="F166" s="4"/>
       <c r="G166" s="4">
-        <v>1682</v>
+        <v>1627</v>
       </c>
       <c r="H166" s="4">
         <v>807</v>
@@ -9136,9 +8980,8 @@
       <c r="AB166" s="3"/>
       <c r="AC166" s="3"/>
       <c r="AD166" s="3"/>
-      <c r="AE166" s="3"/>
-    </row>
-    <row r="167" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="167" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A167" s="4" t="s">
         <v>26</v>
       </c>
@@ -9183,9 +9026,8 @@
       <c r="AB167" s="3"/>
       <c r="AC167" s="3"/>
       <c r="AD167" s="3"/>
-      <c r="AE167" s="3"/>
-    </row>
-    <row r="168" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="168" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A168" s="4" t="s">
         <v>26</v>
       </c>
@@ -9197,10 +9039,10 @@
       <c r="E168" s="4"/>
       <c r="F168" s="4"/>
       <c r="G168" s="4">
-        <v>1664</v>
+        <v>1682</v>
       </c>
       <c r="H168" s="4">
-        <v>822</v>
+        <v>807</v>
       </c>
       <c r="I168" s="4"/>
       <c r="J168" s="4"/>
@@ -9220,11 +9062,9 @@
       </c>
       <c r="U168" s="6"/>
       <c r="V168" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="W168" s="9" t="s">
-        <v>95</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="W168" s="3"/>
       <c r="X168" s="3"/>
       <c r="Y168" s="3"/>
       <c r="Z168" s="3"/>
@@ -9232,9 +9072,8 @@
       <c r="AB168" s="3"/>
       <c r="AC168" s="3"/>
       <c r="AD168" s="3"/>
-      <c r="AE168" s="3"/>
-    </row>
-    <row r="169" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="169" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A169" s="4" t="s">
         <v>26</v>
       </c>
@@ -9246,10 +9085,10 @@
       <c r="E169" s="4"/>
       <c r="F169" s="4"/>
       <c r="G169" s="4">
-        <v>1674</v>
+        <v>1652</v>
       </c>
       <c r="H169" s="4">
-        <v>822</v>
+        <v>807</v>
       </c>
       <c r="I169" s="4"/>
       <c r="J169" s="4"/>
@@ -9269,11 +9108,9 @@
       </c>
       <c r="U169" s="6"/>
       <c r="V169" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="W169" s="9" t="s">
-        <v>85</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="W169" s="3"/>
       <c r="X169" s="3"/>
       <c r="Y169" s="3"/>
       <c r="Z169" s="3"/>
@@ -9281,9 +9118,8 @@
       <c r="AB169" s="3"/>
       <c r="AC169" s="3"/>
       <c r="AD169" s="3"/>
-      <c r="AE169" s="3"/>
-    </row>
-    <row r="170" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="170" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A170" s="4" t="s">
         <v>26</v>
       </c>
@@ -9295,10 +9131,10 @@
       <c r="E170" s="4"/>
       <c r="F170" s="4"/>
       <c r="G170" s="4">
-        <v>1682</v>
+        <v>1664</v>
       </c>
       <c r="H170" s="4">
-        <v>807</v>
+        <v>822</v>
       </c>
       <c r="I170" s="4"/>
       <c r="J170" s="4"/>
@@ -9318,9 +9154,11 @@
       </c>
       <c r="U170" s="6"/>
       <c r="V170" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="W170" s="9"/>
+        <v>94</v>
+      </c>
+      <c r="W170" s="9" t="s">
+        <v>95</v>
+      </c>
       <c r="X170" s="3"/>
       <c r="Y170" s="3"/>
       <c r="Z170" s="3"/>
@@ -9328,9 +9166,8 @@
       <c r="AB170" s="3"/>
       <c r="AC170" s="3"/>
       <c r="AD170" s="3"/>
-      <c r="AE170" s="3"/>
-    </row>
-    <row r="171" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="171" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A171" s="4" t="s">
         <v>26</v>
       </c>
@@ -9342,10 +9179,10 @@
       <c r="E171" s="4"/>
       <c r="F171" s="4"/>
       <c r="G171" s="4">
-        <v>1652</v>
+        <v>1674</v>
       </c>
       <c r="H171" s="4">
-        <v>867</v>
+        <v>822</v>
       </c>
       <c r="I171" s="4"/>
       <c r="J171" s="4"/>
@@ -9365,9 +9202,11 @@
       </c>
       <c r="U171" s="6"/>
       <c r="V171" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="W171" s="9"/>
+        <v>84</v>
+      </c>
+      <c r="W171" s="9" t="s">
+        <v>85</v>
+      </c>
       <c r="X171" s="3"/>
       <c r="Y171" s="3"/>
       <c r="Z171" s="3"/>
@@ -9375,9 +9214,8 @@
       <c r="AB171" s="3"/>
       <c r="AC171" s="3"/>
       <c r="AD171" s="3"/>
-      <c r="AE171" s="3"/>
-    </row>
-    <row r="172" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="172" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A172" s="4" t="s">
         <v>26</v>
       </c>
@@ -9392,7 +9230,7 @@
         <v>1682</v>
       </c>
       <c r="H172" s="4">
-        <v>867</v>
+        <v>807</v>
       </c>
       <c r="I172" s="4"/>
       <c r="J172" s="4"/>
@@ -9422,9 +9260,8 @@
       <c r="AB172" s="3"/>
       <c r="AC172" s="3"/>
       <c r="AD172" s="3"/>
-      <c r="AE172" s="3"/>
-    </row>
-    <row r="173" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="173" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A173" s="4" t="s">
         <v>26</v>
       </c>
@@ -9469,9 +9306,8 @@
       <c r="AB173" s="3"/>
       <c r="AC173" s="3"/>
       <c r="AD173" s="3"/>
-      <c r="AE173" s="3"/>
-    </row>
-    <row r="174" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="174" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A174" s="4" t="s">
         <v>26</v>
       </c>
@@ -9483,10 +9319,10 @@
       <c r="E174" s="4"/>
       <c r="F174" s="4"/>
       <c r="G174" s="4">
-        <v>1664</v>
+        <v>1682</v>
       </c>
       <c r="H174" s="4">
-        <v>847</v>
+        <v>867</v>
       </c>
       <c r="I174" s="4"/>
       <c r="J174" s="4"/>
@@ -9506,11 +9342,9 @@
       </c>
       <c r="U174" s="6"/>
       <c r="V174" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="W174" s="9" t="s">
-        <v>85</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="W174" s="9"/>
       <c r="X174" s="3"/>
       <c r="Y174" s="3"/>
       <c r="Z174" s="3"/>
@@ -9518,9 +9352,8 @@
       <c r="AB174" s="3"/>
       <c r="AC174" s="3"/>
       <c r="AD174" s="3"/>
-      <c r="AE174" s="3"/>
-    </row>
-    <row r="175" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="175" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A175" s="4" t="s">
         <v>26</v>
       </c>
@@ -9532,10 +9365,10 @@
       <c r="E175" s="4"/>
       <c r="F175" s="4"/>
       <c r="G175" s="4">
-        <v>1674</v>
+        <v>1652</v>
       </c>
       <c r="H175" s="4">
-        <v>847</v>
+        <v>867</v>
       </c>
       <c r="I175" s="4"/>
       <c r="J175" s="4"/>
@@ -9555,11 +9388,9 @@
       </c>
       <c r="U175" s="6"/>
       <c r="V175" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="W175" s="9" t="s">
-        <v>95</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="W175" s="9"/>
       <c r="X175" s="3"/>
       <c r="Y175" s="3"/>
       <c r="Z175" s="3"/>
@@ -9567,9 +9398,8 @@
       <c r="AB175" s="3"/>
       <c r="AC175" s="3"/>
       <c r="AD175" s="3"/>
-      <c r="AE175" s="3"/>
-    </row>
-    <row r="176" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="176" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A176" s="4" t="s">
         <v>26</v>
       </c>
@@ -9581,10 +9411,10 @@
       <c r="E176" s="4"/>
       <c r="F176" s="4"/>
       <c r="G176" s="4">
-        <v>1682</v>
+        <v>1664</v>
       </c>
       <c r="H176" s="4">
-        <v>867</v>
+        <v>847</v>
       </c>
       <c r="I176" s="4"/>
       <c r="J176" s="4"/>
@@ -9604,9 +9434,11 @@
       </c>
       <c r="U176" s="6"/>
       <c r="V176" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="W176" s="3"/>
+        <v>84</v>
+      </c>
+      <c r="W176" s="9" t="s">
+        <v>85</v>
+      </c>
       <c r="X176" s="3"/>
       <c r="Y176" s="3"/>
       <c r="Z176" s="3"/>
@@ -9614,9 +9446,8 @@
       <c r="AB176" s="3"/>
       <c r="AC176" s="3"/>
       <c r="AD176" s="3"/>
-      <c r="AE176" s="3"/>
-    </row>
-    <row r="177" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="177" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A177" s="4" t="s">
         <v>26</v>
       </c>
@@ -9628,10 +9459,10 @@
       <c r="E177" s="4"/>
       <c r="F177" s="4"/>
       <c r="G177" s="4">
-        <v>1702</v>
+        <v>1674</v>
       </c>
       <c r="H177" s="4">
-        <v>747</v>
+        <v>847</v>
       </c>
       <c r="I177" s="4"/>
       <c r="J177" s="4"/>
@@ -9651,9 +9482,11 @@
       </c>
       <c r="U177" s="6"/>
       <c r="V177" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="W177" s="3"/>
+        <v>94</v>
+      </c>
+      <c r="W177" s="9" t="s">
+        <v>95</v>
+      </c>
       <c r="X177" s="3"/>
       <c r="Y177" s="3"/>
       <c r="Z177" s="3"/>
@@ -9661,9 +9494,8 @@
       <c r="AB177" s="3"/>
       <c r="AC177" s="3"/>
       <c r="AD177" s="3"/>
-      <c r="AE177" s="3"/>
-    </row>
-    <row r="178" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="178" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A178" s="4" t="s">
         <v>26</v>
       </c>
@@ -9675,10 +9507,10 @@
       <c r="E178" s="4"/>
       <c r="F178" s="4"/>
       <c r="G178" s="4">
-        <v>1732</v>
+        <v>1682</v>
       </c>
       <c r="H178" s="4">
-        <v>747</v>
+        <v>867</v>
       </c>
       <c r="I178" s="4"/>
       <c r="J178" s="4"/>
@@ -9708,9 +9540,8 @@
       <c r="AB178" s="3"/>
       <c r="AC178" s="3"/>
       <c r="AD178" s="3"/>
-      <c r="AE178" s="3"/>
-    </row>
-    <row r="179" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="179" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A179" s="4" t="s">
         <v>26</v>
       </c>
@@ -9722,10 +9553,10 @@
       <c r="E179" s="4"/>
       <c r="F179" s="4"/>
       <c r="G179" s="4">
-        <v>1714</v>
+        <v>1702</v>
       </c>
       <c r="H179" s="4">
-        <v>787</v>
+        <v>747</v>
       </c>
       <c r="I179" s="4"/>
       <c r="J179" s="4"/>
@@ -9745,11 +9576,9 @@
       </c>
       <c r="U179" s="6"/>
       <c r="V179" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="W179" s="9" t="s">
-        <v>85</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="W179" s="3"/>
       <c r="X179" s="3"/>
       <c r="Y179" s="3"/>
       <c r="Z179" s="3"/>
@@ -9757,9 +9586,8 @@
       <c r="AB179" s="3"/>
       <c r="AC179" s="3"/>
       <c r="AD179" s="3"/>
-      <c r="AE179" s="3"/>
-    </row>
-    <row r="180" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="180" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A180" s="4" t="s">
         <v>26</v>
       </c>
@@ -9804,9 +9632,8 @@
       <c r="AB180" s="3"/>
       <c r="AC180" s="3"/>
       <c r="AD180" s="3"/>
-      <c r="AE180" s="3"/>
-    </row>
-    <row r="181" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="181" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A181" s="4" t="s">
         <v>26</v>
       </c>
@@ -9818,10 +9645,10 @@
       <c r="E181" s="4"/>
       <c r="F181" s="4"/>
       <c r="G181" s="4">
-        <v>1757</v>
+        <v>1714</v>
       </c>
       <c r="H181" s="4">
-        <v>747</v>
+        <v>787</v>
       </c>
       <c r="I181" s="4"/>
       <c r="J181" s="4"/>
@@ -9841,9 +9668,11 @@
       </c>
       <c r="U181" s="6"/>
       <c r="V181" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="W181" s="3"/>
+        <v>84</v>
+      </c>
+      <c r="W181" s="9" t="s">
+        <v>85</v>
+      </c>
       <c r="X181" s="3"/>
       <c r="Y181" s="3"/>
       <c r="Z181" s="3"/>
@@ -9851,9 +9680,8 @@
       <c r="AB181" s="3"/>
       <c r="AC181" s="3"/>
       <c r="AD181" s="3"/>
-      <c r="AE181" s="3"/>
-    </row>
-    <row r="182" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="182" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A182" s="4" t="s">
         <v>26</v>
       </c>
@@ -9865,7 +9693,7 @@
       <c r="E182" s="4"/>
       <c r="F182" s="4"/>
       <c r="G182" s="4">
-        <v>1787</v>
+        <v>1732</v>
       </c>
       <c r="H182" s="4">
         <v>747</v>
@@ -9898,9 +9726,8 @@
       <c r="AB182" s="3"/>
       <c r="AC182" s="3"/>
       <c r="AD182" s="3"/>
-      <c r="AE182" s="3"/>
-    </row>
-    <row r="183" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="183" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A183" s="4" t="s">
         <v>26</v>
       </c>
@@ -9912,7 +9739,7 @@
       <c r="E183" s="4"/>
       <c r="F183" s="4"/>
       <c r="G183" s="4">
-        <v>1817</v>
+        <v>1757</v>
       </c>
       <c r="H183" s="4">
         <v>747</v>
@@ -9945,9 +9772,8 @@
       <c r="AB183" s="3"/>
       <c r="AC183" s="3"/>
       <c r="AD183" s="3"/>
-      <c r="AE183" s="3"/>
-    </row>
-    <row r="184" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="184" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A184" s="4" t="s">
         <v>26</v>
       </c>
@@ -9959,7 +9785,7 @@
       <c r="E184" s="4"/>
       <c r="F184" s="4"/>
       <c r="G184" s="4">
-        <v>1857</v>
+        <v>1787</v>
       </c>
       <c r="H184" s="4">
         <v>747</v>
@@ -9984,9 +9810,7 @@
       <c r="V184" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="W184" s="3" t="s">
-        <v>224</v>
-      </c>
+      <c r="W184" s="3"/>
       <c r="X184" s="3"/>
       <c r="Y184" s="3"/>
       <c r="Z184" s="3"/>
@@ -9994,24 +9818,23 @@
       <c r="AB184" s="3"/>
       <c r="AC184" s="3"/>
       <c r="AD184" s="3"/>
-      <c r="AE184" s="3"/>
-    </row>
-    <row r="185" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="185" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A185" s="4" t="s">
-        <v>225</v>
+        <v>26</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C185" s="4"/>
       <c r="D185" s="4"/>
       <c r="E185" s="4"/>
       <c r="F185" s="4"/>
       <c r="G185" s="4">
-        <v>112</v>
+        <v>1817</v>
       </c>
       <c r="H185" s="4">
-        <v>491</v>
+        <v>747</v>
       </c>
       <c r="I185" s="4"/>
       <c r="J185" s="4"/>
@@ -10023,11 +9846,15 @@
       <c r="P185" s="4"/>
       <c r="Q185" s="4"/>
       <c r="R185" s="4"/>
-      <c r="S185" s="4"/>
-      <c r="T185" s="4"/>
-      <c r="U185" s="4"/>
-      <c r="V185" s="3" t="s">
-        <v>227</v>
+      <c r="S185" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="T185" s="5">
+        <v>0</v>
+      </c>
+      <c r="U185" s="6"/>
+      <c r="V185" s="7" t="s">
+        <v>74</v>
       </c>
       <c r="W185" s="3"/>
       <c r="X185" s="3"/>
@@ -10037,24 +9864,23 @@
       <c r="AB185" s="3"/>
       <c r="AC185" s="3"/>
       <c r="AD185" s="3"/>
-      <c r="AE185" s="3"/>
-    </row>
-    <row r="186" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="186" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A186" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B186" s="4" t="s">
         <v>225</v>
-      </c>
-      <c r="B186" s="4" t="s">
-        <v>228</v>
       </c>
       <c r="C186" s="4"/>
       <c r="D186" s="4"/>
       <c r="E186" s="4"/>
       <c r="F186" s="4"/>
       <c r="G186" s="4">
-        <v>112</v>
+        <v>1857</v>
       </c>
       <c r="H186" s="4">
-        <v>537</v>
+        <v>747</v>
       </c>
       <c r="I186" s="4"/>
       <c r="J186" s="4"/>
@@ -10066,13 +9892,19 @@
       <c r="P186" s="4"/>
       <c r="Q186" s="4"/>
       <c r="R186" s="4"/>
-      <c r="S186" s="4"/>
-      <c r="T186" s="4"/>
-      <c r="U186" s="4"/>
-      <c r="V186" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="W186" s="3"/>
+      <c r="S186" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="T186" s="5">
+        <v>0</v>
+      </c>
+      <c r="U186" s="6"/>
+      <c r="V186" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="W186" s="3" t="s">
+        <v>226</v>
+      </c>
       <c r="X186" s="3"/>
       <c r="Y186" s="3"/>
       <c r="Z186" s="3"/>
@@ -10080,14 +9912,13 @@
       <c r="AB186" s="3"/>
       <c r="AC186" s="3"/>
       <c r="AD186" s="3"/>
-      <c r="AE186" s="3"/>
-    </row>
-    <row r="187" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="187" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A187" s="4" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C187" s="4"/>
       <c r="D187" s="4"/>
@@ -10097,7 +9928,7 @@
         <v>112</v>
       </c>
       <c r="H187" s="4">
-        <v>583</v>
+        <v>491</v>
       </c>
       <c r="I187" s="4"/>
       <c r="J187" s="4"/>
@@ -10113,7 +9944,7 @@
       <c r="T187" s="4"/>
       <c r="U187" s="4"/>
       <c r="V187" s="3" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="W187" s="3"/>
       <c r="X187" s="3"/>
@@ -10123,11 +9954,10 @@
       <c r="AB187" s="3"/>
       <c r="AC187" s="3"/>
       <c r="AD187" s="3"/>
-      <c r="AE187" s="3"/>
-    </row>
-    <row r="188" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="188" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A188" s="4" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B188" s="4" t="s">
         <v>230</v>
@@ -10140,7 +9970,7 @@
         <v>112</v>
       </c>
       <c r="H188" s="4">
-        <v>629</v>
+        <v>537</v>
       </c>
       <c r="I188" s="4"/>
       <c r="J188" s="4"/>
@@ -10156,7 +9986,7 @@
       <c r="T188" s="4"/>
       <c r="U188" s="4"/>
       <c r="V188" s="3" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="W188" s="3"/>
       <c r="X188" s="3"/>
@@ -10166,11 +9996,10 @@
       <c r="AB188" s="3"/>
       <c r="AC188" s="3"/>
       <c r="AD188" s="3"/>
-      <c r="AE188" s="3"/>
-    </row>
-    <row r="189" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="189" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A189" s="4" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B189" s="4" t="s">
         <v>231</v>
@@ -10180,10 +10009,10 @@
       <c r="E189" s="4"/>
       <c r="F189" s="4"/>
       <c r="G189" s="4">
-        <v>412</v>
+        <v>112</v>
       </c>
       <c r="H189" s="4">
-        <v>537</v>
+        <v>583</v>
       </c>
       <c r="I189" s="4"/>
       <c r="J189" s="4"/>
@@ -10199,7 +10028,7 @@
       <c r="T189" s="4"/>
       <c r="U189" s="4"/>
       <c r="V189" s="3" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="W189" s="3"/>
       <c r="X189" s="3"/>
@@ -10209,11 +10038,10 @@
       <c r="AB189" s="3"/>
       <c r="AC189" s="3"/>
       <c r="AD189" s="3"/>
-      <c r="AE189" s="3"/>
-    </row>
-    <row r="190" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="190" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A190" s="4" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B190" s="4" t="s">
         <v>232</v>
@@ -10223,10 +10051,10 @@
       <c r="E190" s="4"/>
       <c r="F190" s="4"/>
       <c r="G190" s="4">
-        <v>262</v>
+        <v>112</v>
       </c>
       <c r="H190" s="4">
-        <v>537</v>
+        <v>629</v>
       </c>
       <c r="I190" s="4"/>
       <c r="J190" s="4"/>
@@ -10242,7 +10070,7 @@
       <c r="T190" s="4"/>
       <c r="U190" s="4"/>
       <c r="V190" s="3" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="W190" s="3"/>
       <c r="X190" s="3"/>
@@ -10252,11 +10080,10 @@
       <c r="AB190" s="3"/>
       <c r="AC190" s="3"/>
       <c r="AD190" s="3"/>
-      <c r="AE190" s="3"/>
-    </row>
-    <row r="191" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="191" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A191" s="4" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B191" s="4" t="s">
         <v>233</v>
@@ -10266,10 +10093,10 @@
       <c r="E191" s="4"/>
       <c r="F191" s="4"/>
       <c r="G191" s="4">
-        <v>826</v>
+        <v>412</v>
       </c>
       <c r="H191" s="4">
-        <v>676</v>
+        <v>537</v>
       </c>
       <c r="I191" s="4"/>
       <c r="J191" s="4"/>
@@ -10285,7 +10112,7 @@
       <c r="T191" s="4"/>
       <c r="U191" s="4"/>
       <c r="V191" s="3" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="W191" s="3"/>
       <c r="X191" s="3"/>
@@ -10295,11 +10122,10 @@
       <c r="AB191" s="3"/>
       <c r="AC191" s="3"/>
       <c r="AD191" s="3"/>
-      <c r="AE191" s="3"/>
-    </row>
-    <row r="192" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="192" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A192" s="4" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B192" s="4" t="s">
         <v>234</v>
@@ -10309,10 +10135,10 @@
       <c r="E192" s="4"/>
       <c r="F192" s="4"/>
       <c r="G192" s="4">
-        <v>1250</v>
+        <v>262</v>
       </c>
       <c r="H192" s="4">
-        <v>616</v>
+        <v>537</v>
       </c>
       <c r="I192" s="4"/>
       <c r="J192" s="4"/>
@@ -10328,7 +10154,7 @@
       <c r="T192" s="4"/>
       <c r="U192" s="4"/>
       <c r="V192" s="3" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="W192" s="3"/>
       <c r="X192" s="3"/>
@@ -10338,11 +10164,10 @@
       <c r="AB192" s="3"/>
       <c r="AC192" s="3"/>
       <c r="AD192" s="3"/>
-      <c r="AE192" s="3"/>
-    </row>
-    <row r="193" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="193" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A193" s="4" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B193" s="4" t="s">
         <v>235</v>
@@ -10352,7 +10177,7 @@
       <c r="E193" s="4"/>
       <c r="F193" s="4"/>
       <c r="G193" s="4">
-        <v>1250</v>
+        <v>622</v>
       </c>
       <c r="H193" s="4">
         <v>676</v>
@@ -10371,7 +10196,7 @@
       <c r="T193" s="4"/>
       <c r="U193" s="4"/>
       <c r="V193" s="3" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="W193" s="3"/>
       <c r="X193" s="3"/>
@@ -10381,11 +10206,10 @@
       <c r="AB193" s="3"/>
       <c r="AC193" s="3"/>
       <c r="AD193" s="3"/>
-      <c r="AE193" s="3"/>
-    </row>
-    <row r="194" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="194" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A194" s="4" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B194" s="4" t="s">
         <v>236</v>
@@ -10395,10 +10219,10 @@
       <c r="E194" s="4"/>
       <c r="F194" s="4"/>
       <c r="G194" s="4">
-        <v>1232</v>
+        <v>952</v>
       </c>
       <c r="H194" s="4">
-        <v>903</v>
+        <v>676</v>
       </c>
       <c r="I194" s="4"/>
       <c r="J194" s="4"/>
@@ -10414,7 +10238,7 @@
       <c r="T194" s="4"/>
       <c r="U194" s="4"/>
       <c r="V194" s="3" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="W194" s="3"/>
       <c r="X194" s="3"/>
@@ -10424,11 +10248,10 @@
       <c r="AB194" s="3"/>
       <c r="AC194" s="3"/>
       <c r="AD194" s="3"/>
-      <c r="AE194" s="3"/>
-    </row>
-    <row r="195" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="195" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A195" s="4" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B195" s="4" t="s">
         <v>237</v>
@@ -10438,10 +10261,10 @@
       <c r="E195" s="4"/>
       <c r="F195" s="4"/>
       <c r="G195" s="4">
-        <v>1465</v>
+        <v>1376</v>
       </c>
       <c r="H195" s="4">
-        <v>903</v>
+        <v>616</v>
       </c>
       <c r="I195" s="4"/>
       <c r="J195" s="4"/>
@@ -10457,7 +10280,7 @@
       <c r="T195" s="4"/>
       <c r="U195" s="4"/>
       <c r="V195" s="3" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="W195" s="3"/>
       <c r="X195" s="3"/>
@@ -10467,11 +10290,10 @@
       <c r="AB195" s="3"/>
       <c r="AC195" s="3"/>
       <c r="AD195" s="3"/>
-      <c r="AE195" s="3"/>
-    </row>
-    <row r="196" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="196" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A196" s="4" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B196" s="4" t="s">
         <v>238</v>
@@ -10481,10 +10303,10 @@
       <c r="E196" s="4"/>
       <c r="F196" s="4"/>
       <c r="G196" s="4">
-        <v>1465</v>
+        <v>1376</v>
       </c>
       <c r="H196" s="4">
-        <v>949</v>
+        <v>676</v>
       </c>
       <c r="I196" s="4"/>
       <c r="J196" s="4"/>
@@ -10500,7 +10322,7 @@
       <c r="T196" s="4"/>
       <c r="U196" s="4"/>
       <c r="V196" s="3" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="W196" s="3"/>
       <c r="X196" s="3"/>
@@ -10510,11 +10332,10 @@
       <c r="AB196" s="3"/>
       <c r="AC196" s="3"/>
       <c r="AD196" s="3"/>
-      <c r="AE196" s="3"/>
-    </row>
-    <row r="197" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="197" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A197" s="4" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B197" s="4" t="s">
         <v>239</v>
@@ -10524,7 +10345,7 @@
       <c r="E197" s="4"/>
       <c r="F197" s="4"/>
       <c r="G197" s="4">
-        <v>1615</v>
+        <v>1255</v>
       </c>
       <c r="H197" s="4">
         <v>903</v>
@@ -10543,11 +10364,9 @@
       <c r="T197" s="4"/>
       <c r="U197" s="4"/>
       <c r="V197" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="W197" s="3" t="s">
-        <v>240</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="W197" s="3"/>
       <c r="X197" s="3"/>
       <c r="Y197" s="3"/>
       <c r="Z197" s="3"/>
@@ -10555,21 +10374,20 @@
       <c r="AB197" s="3"/>
       <c r="AC197" s="3"/>
       <c r="AD197" s="3"/>
-      <c r="AE197" s="3"/>
-    </row>
-    <row r="198" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="198" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A198" s="4" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C198" s="4"/>
       <c r="D198" s="4"/>
       <c r="E198" s="4"/>
       <c r="F198" s="4"/>
       <c r="G198" s="4">
-        <v>1765</v>
+        <v>1465</v>
       </c>
       <c r="H198" s="4">
         <v>903</v>
@@ -10588,7 +10406,7 @@
       <c r="T198" s="4"/>
       <c r="U198" s="4"/>
       <c r="V198" s="3" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="W198" s="3"/>
       <c r="X198" s="3"/>
@@ -10598,24 +10416,23 @@
       <c r="AB198" s="3"/>
       <c r="AC198" s="3"/>
       <c r="AD198" s="3"/>
-      <c r="AE198" s="3"/>
-    </row>
-    <row r="199" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="199" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A199" s="4" t="s">
-        <v>26</v>
+        <v>227</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C199" s="4"/>
       <c r="D199" s="4"/>
       <c r="E199" s="4"/>
       <c r="F199" s="4"/>
       <c r="G199" s="4">
-        <v>773</v>
+        <v>1465</v>
       </c>
       <c r="H199" s="4">
-        <v>45</v>
+        <v>949</v>
       </c>
       <c r="I199" s="4"/>
       <c r="J199" s="4"/>
@@ -10627,19 +10444,13 @@
       <c r="P199" s="4"/>
       <c r="Q199" s="4"/>
       <c r="R199" s="4"/>
-      <c r="S199" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="T199" s="5">
-        <v>0</v>
-      </c>
-      <c r="U199" s="6"/>
-      <c r="V199" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="W199" s="3" t="s">
-        <v>244</v>
-      </c>
+      <c r="S199" s="4"/>
+      <c r="T199" s="4"/>
+      <c r="U199" s="4"/>
+      <c r="V199" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="W199" s="3"/>
       <c r="X199" s="3"/>
       <c r="Y199" s="3"/>
       <c r="Z199" s="3"/>
@@ -10647,24 +10458,23 @@
       <c r="AB199" s="3"/>
       <c r="AC199" s="3"/>
       <c r="AD199" s="3"/>
-      <c r="AE199" s="3"/>
-    </row>
-    <row r="200" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="200" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A200" s="4" t="s">
-        <v>26</v>
+        <v>227</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C200" s="4"/>
       <c r="D200" s="4"/>
       <c r="E200" s="4"/>
       <c r="F200" s="4"/>
       <c r="G200" s="4">
-        <v>783</v>
+        <v>1615</v>
       </c>
       <c r="H200" s="4">
-        <v>45</v>
+        <v>903</v>
       </c>
       <c r="I200" s="4"/>
       <c r="J200" s="4"/>
@@ -10676,18 +10486,14 @@
       <c r="P200" s="4"/>
       <c r="Q200" s="4"/>
       <c r="R200" s="4"/>
-      <c r="S200" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="T200" s="5">
-        <v>0</v>
-      </c>
-      <c r="U200" s="6"/>
-      <c r="V200" s="7" t="s">
+      <c r="S200" s="4"/>
+      <c r="T200" s="4"/>
+      <c r="U200" s="4"/>
+      <c r="V200" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="W200" s="3" t="s">
         <v>243</v>
-      </c>
-      <c r="W200" s="3" t="s">
-        <v>246</v>
       </c>
       <c r="X200" s="3"/>
       <c r="Y200" s="3"/>
@@ -10696,24 +10502,23 @@
       <c r="AB200" s="3"/>
       <c r="AC200" s="3"/>
       <c r="AD200" s="3"/>
-      <c r="AE200" s="3"/>
-    </row>
-    <row r="201" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="201" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A201" s="4" t="s">
-        <v>26</v>
+        <v>227</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C201" s="4"/>
       <c r="D201" s="4"/>
       <c r="E201" s="4"/>
       <c r="F201" s="4"/>
       <c r="G201" s="4">
-        <v>773</v>
+        <v>1765</v>
       </c>
       <c r="H201" s="4">
-        <v>55</v>
+        <v>903</v>
       </c>
       <c r="I201" s="4"/>
       <c r="J201" s="4"/>
@@ -10725,19 +10530,13 @@
       <c r="P201" s="4"/>
       <c r="Q201" s="4"/>
       <c r="R201" s="4"/>
-      <c r="S201" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="T201" s="5">
-        <v>0</v>
-      </c>
-      <c r="U201" s="6"/>
-      <c r="V201" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="W201" s="3" t="s">
-        <v>248</v>
-      </c>
+      <c r="S201" s="4"/>
+      <c r="T201" s="4"/>
+      <c r="U201" s="4"/>
+      <c r="V201" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="W201" s="3"/>
       <c r="X201" s="3"/>
       <c r="Y201" s="3"/>
       <c r="Z201" s="3"/>
@@ -10745,24 +10544,23 @@
       <c r="AB201" s="3"/>
       <c r="AC201" s="3"/>
       <c r="AD201" s="3"/>
-      <c r="AE201" s="3"/>
-    </row>
-    <row r="202" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="202" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A202" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C202" s="4"/>
       <c r="D202" s="4"/>
       <c r="E202" s="4"/>
       <c r="F202" s="4"/>
       <c r="G202" s="4">
-        <v>783</v>
+        <v>773</v>
       </c>
       <c r="H202" s="4">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="I202" s="4"/>
       <c r="J202" s="4"/>
@@ -10782,10 +10580,10 @@
       </c>
       <c r="U202" s="6"/>
       <c r="V202" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="W202" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="X202" s="3"/>
       <c r="Y202" s="3"/>
@@ -10794,21 +10592,20 @@
       <c r="AB202" s="3"/>
       <c r="AC202" s="3"/>
       <c r="AD202" s="3"/>
-      <c r="AE202" s="3"/>
-    </row>
-    <row r="203" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="203" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A203" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C203" s="4"/>
       <c r="D203" s="4"/>
       <c r="E203" s="4"/>
       <c r="F203" s="4"/>
       <c r="G203" s="4">
-        <v>821</v>
+        <v>783</v>
       </c>
       <c r="H203" s="4">
         <v>45</v>
@@ -10831,10 +10628,10 @@
       </c>
       <c r="U203" s="6"/>
       <c r="V203" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="W203" s="3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="X203" s="3"/>
       <c r="Y203" s="3"/>
@@ -10843,24 +10640,23 @@
       <c r="AB203" s="3"/>
       <c r="AC203" s="3"/>
       <c r="AD203" s="3"/>
-      <c r="AE203" s="3"/>
-    </row>
-    <row r="204" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="204" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A204" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C204" s="4"/>
       <c r="D204" s="4"/>
       <c r="E204" s="4"/>
       <c r="F204" s="4"/>
       <c r="G204" s="4">
-        <v>831</v>
+        <v>773</v>
       </c>
       <c r="H204" s="4">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="I204" s="4"/>
       <c r="J204" s="4"/>
@@ -10880,10 +10676,10 @@
       </c>
       <c r="U204" s="6"/>
       <c r="V204" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="W204" s="3" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="X204" s="3"/>
       <c r="Y204" s="3"/>
@@ -10892,21 +10688,20 @@
       <c r="AB204" s="3"/>
       <c r="AC204" s="3"/>
       <c r="AD204" s="3"/>
-      <c r="AE204" s="3"/>
-    </row>
-    <row r="205" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="205" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A205" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C205" s="4"/>
       <c r="D205" s="4"/>
       <c r="E205" s="4"/>
       <c r="F205" s="4"/>
       <c r="G205" s="4">
-        <v>821</v>
+        <v>783</v>
       </c>
       <c r="H205" s="4">
         <v>55</v>
@@ -10929,10 +10724,10 @@
       </c>
       <c r="U205" s="6"/>
       <c r="V205" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="W205" s="3" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="X205" s="3"/>
       <c r="Y205" s="3"/>
@@ -10941,24 +10736,23 @@
       <c r="AB205" s="3"/>
       <c r="AC205" s="3"/>
       <c r="AD205" s="3"/>
-      <c r="AE205" s="3"/>
-    </row>
-    <row r="206" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="206" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A206" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C206" s="4"/>
       <c r="D206" s="4"/>
       <c r="E206" s="4"/>
       <c r="F206" s="4"/>
       <c r="G206" s="4">
-        <v>831</v>
+        <v>821</v>
       </c>
       <c r="H206" s="4">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="I206" s="4"/>
       <c r="J206" s="4"/>
@@ -10978,10 +10772,10 @@
       </c>
       <c r="U206" s="6"/>
       <c r="V206" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="W206" s="3" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="X206" s="3"/>
       <c r="Y206" s="3"/>
@@ -10990,24 +10784,23 @@
       <c r="AB206" s="3"/>
       <c r="AC206" s="3"/>
       <c r="AD206" s="3"/>
-      <c r="AE206" s="3"/>
-    </row>
-    <row r="207" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="207" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A207" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C207" s="4"/>
       <c r="D207" s="4"/>
       <c r="E207" s="4"/>
       <c r="F207" s="4"/>
       <c r="G207" s="4">
-        <v>1079</v>
+        <v>831</v>
       </c>
       <c r="H207" s="4">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="I207" s="4"/>
       <c r="J207" s="4"/>
@@ -11027,9 +10820,11 @@
       </c>
       <c r="U207" s="6"/>
       <c r="V207" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="W207" s="3"/>
+        <v>246</v>
+      </c>
+      <c r="W207" s="3" t="s">
+        <v>257</v>
+      </c>
       <c r="X207" s="3"/>
       <c r="Y207" s="3"/>
       <c r="Z207" s="3"/>
@@ -11037,24 +10832,23 @@
       <c r="AB207" s="3"/>
       <c r="AC207" s="3"/>
       <c r="AD207" s="3"/>
-      <c r="AE207" s="3"/>
-    </row>
-    <row r="208" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="208" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A208" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B208" s="11" t="s">
-        <v>260</v>
+      <c r="B208" s="4" t="s">
+        <v>258</v>
       </c>
       <c r="C208" s="4"/>
       <c r="D208" s="4"/>
       <c r="E208" s="4"/>
       <c r="F208" s="4"/>
       <c r="G208" s="4">
-        <v>1089</v>
+        <v>821</v>
       </c>
       <c r="H208" s="4">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="I208" s="4"/>
       <c r="J208" s="4"/>
@@ -11074,9 +10868,11 @@
       </c>
       <c r="U208" s="6"/>
       <c r="V208" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="W208" s="3"/>
+        <v>246</v>
+      </c>
+      <c r="W208" s="3" t="s">
+        <v>259</v>
+      </c>
       <c r="X208" s="3"/>
       <c r="Y208" s="3"/>
       <c r="Z208" s="3"/>
@@ -11084,24 +10880,23 @@
       <c r="AB208" s="3"/>
       <c r="AC208" s="3"/>
       <c r="AD208" s="3"/>
-      <c r="AE208" s="3"/>
-    </row>
-    <row r="209" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="209" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A209" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B209" s="11" t="s">
-        <v>261</v>
+      <c r="B209" s="4" t="s">
+        <v>260</v>
       </c>
       <c r="C209" s="4"/>
       <c r="D209" s="4"/>
       <c r="E209" s="4"/>
       <c r="F209" s="4"/>
       <c r="G209" s="4">
-        <v>1117</v>
+        <v>831</v>
       </c>
       <c r="H209" s="4">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="I209" s="4"/>
       <c r="J209" s="4"/>
@@ -11121,9 +10916,11 @@
       </c>
       <c r="U209" s="6"/>
       <c r="V209" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="W209" s="3"/>
+        <v>246</v>
+      </c>
+      <c r="W209" s="3" t="s">
+        <v>261</v>
+      </c>
       <c r="X209" s="3"/>
       <c r="Y209" s="3"/>
       <c r="Z209" s="3"/>
@@ -11131,13 +10928,12 @@
       <c r="AB209" s="3"/>
       <c r="AC209" s="3"/>
       <c r="AD209" s="3"/>
-      <c r="AE209" s="3"/>
-    </row>
-    <row r="210" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="210" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A210" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B210" s="11" t="s">
+      <c r="B210" s="4" t="s">
         <v>262</v>
       </c>
       <c r="C210" s="4"/>
@@ -11145,7 +10941,7 @@
       <c r="E210" s="4"/>
       <c r="F210" s="4"/>
       <c r="G210" s="4">
-        <v>1127</v>
+        <v>1079</v>
       </c>
       <c r="H210" s="4">
         <v>50</v>
@@ -11168,7 +10964,7 @@
       </c>
       <c r="U210" s="6"/>
       <c r="V210" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="W210" s="3"/>
       <c r="X210" s="3"/>
@@ -11178,17 +10974,24 @@
       <c r="AB210" s="3"/>
       <c r="AC210" s="3"/>
       <c r="AD210" s="3"/>
-      <c r="AE210" s="3"/>
-    </row>
-    <row r="211" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A211" s="4"/>
-      <c r="B211" s="4"/>
+    </row>
+    <row r="211" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A211" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B211" s="11" t="s">
+        <v>263</v>
+      </c>
       <c r="C211" s="4"/>
       <c r="D211" s="4"/>
       <c r="E211" s="4"/>
       <c r="F211" s="4"/>
-      <c r="G211" s="4"/>
-      <c r="H211" s="4"/>
+      <c r="G211" s="4">
+        <v>1089</v>
+      </c>
+      <c r="H211" s="4">
+        <v>50</v>
+      </c>
       <c r="I211" s="4"/>
       <c r="J211" s="4"/>
       <c r="K211" s="4"/>
@@ -11199,10 +11002,16 @@
       <c r="P211" s="4"/>
       <c r="Q211" s="4"/>
       <c r="R211" s="4"/>
-      <c r="S211" s="4"/>
-      <c r="T211" s="4"/>
-      <c r="U211" s="4"/>
-      <c r="V211" s="3"/>
+      <c r="S211" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="T211" s="5">
+        <v>0</v>
+      </c>
+      <c r="U211" s="6"/>
+      <c r="V211" s="7" t="s">
+        <v>246</v>
+      </c>
       <c r="W211" s="3"/>
       <c r="X211" s="3"/>
       <c r="Y211" s="3"/>
@@ -11211,17 +11020,24 @@
       <c r="AB211" s="3"/>
       <c r="AC211" s="3"/>
       <c r="AD211" s="3"/>
-      <c r="AE211" s="3"/>
-    </row>
-    <row r="212" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A212" s="4"/>
-      <c r="B212" s="4"/>
+    </row>
+    <row r="212" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A212" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B212" s="11" t="s">
+        <v>264</v>
+      </c>
       <c r="C212" s="4"/>
       <c r="D212" s="4"/>
       <c r="E212" s="4"/>
       <c r="F212" s="4"/>
-      <c r="G212" s="4"/>
-      <c r="H212" s="4"/>
+      <c r="G212" s="4">
+        <v>1117</v>
+      </c>
+      <c r="H212" s="4">
+        <v>50</v>
+      </c>
       <c r="I212" s="4"/>
       <c r="J212" s="4"/>
       <c r="K212" s="4"/>
@@ -11232,10 +11048,16 @@
       <c r="P212" s="4"/>
       <c r="Q212" s="4"/>
       <c r="R212" s="4"/>
-      <c r="S212" s="4"/>
-      <c r="T212" s="4"/>
-      <c r="U212" s="4"/>
-      <c r="V212" s="3"/>
+      <c r="S212" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="T212" s="5">
+        <v>0</v>
+      </c>
+      <c r="U212" s="6"/>
+      <c r="V212" s="7" t="s">
+        <v>246</v>
+      </c>
       <c r="W212" s="3"/>
       <c r="X212" s="3"/>
       <c r="Y212" s="3"/>
@@ -11244,17 +11066,24 @@
       <c r="AB212" s="3"/>
       <c r="AC212" s="3"/>
       <c r="AD212" s="3"/>
-      <c r="AE212" s="3"/>
-    </row>
-    <row r="213" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A213" s="4"/>
-      <c r="B213" s="4"/>
+    </row>
+    <row r="213" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A213" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B213" s="11" t="s">
+        <v>265</v>
+      </c>
       <c r="C213" s="4"/>
       <c r="D213" s="4"/>
       <c r="E213" s="4"/>
       <c r="F213" s="4"/>
-      <c r="G213" s="4"/>
-      <c r="H213" s="4"/>
+      <c r="G213" s="4">
+        <v>1127</v>
+      </c>
+      <c r="H213" s="4">
+        <v>50</v>
+      </c>
       <c r="I213" s="4"/>
       <c r="J213" s="4"/>
       <c r="K213" s="4"/>
@@ -11265,10 +11094,16 @@
       <c r="P213" s="4"/>
       <c r="Q213" s="4"/>
       <c r="R213" s="4"/>
-      <c r="S213" s="4"/>
-      <c r="T213" s="4"/>
-      <c r="U213" s="4"/>
-      <c r="V213" s="3"/>
+      <c r="S213" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="T213" s="5">
+        <v>0</v>
+      </c>
+      <c r="U213" s="6"/>
+      <c r="V213" s="7" t="s">
+        <v>246</v>
+      </c>
       <c r="W213" s="3"/>
       <c r="X213" s="3"/>
       <c r="Y213" s="3"/>
@@ -11277,9 +11112,8 @@
       <c r="AB213" s="3"/>
       <c r="AC213" s="3"/>
       <c r="AD213" s="3"/>
-      <c r="AE213" s="3"/>
-    </row>
-    <row r="214" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="214" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A214" s="4"/>
       <c r="B214" s="4"/>
       <c r="C214" s="4"/>
@@ -11310,7 +11144,102 @@
       <c r="AB214" s="3"/>
       <c r="AC214" s="3"/>
       <c r="AD214" s="3"/>
-      <c r="AE214" s="3"/>
+    </row>
+    <row r="215" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A215" s="4"/>
+      <c r="B215" s="4"/>
+      <c r="C215" s="4"/>
+      <c r="D215" s="4"/>
+      <c r="E215" s="4"/>
+      <c r="F215" s="4"/>
+      <c r="G215" s="4"/>
+      <c r="H215" s="4"/>
+      <c r="I215" s="4"/>
+      <c r="J215" s="4"/>
+      <c r="K215" s="4"/>
+      <c r="L215" s="4"/>
+      <c r="M215" s="4"/>
+      <c r="N215" s="4"/>
+      <c r="O215" s="4"/>
+      <c r="P215" s="4"/>
+      <c r="Q215" s="4"/>
+      <c r="R215" s="4"/>
+      <c r="S215" s="4"/>
+      <c r="T215" s="4"/>
+      <c r="U215" s="4"/>
+      <c r="V215" s="3"/>
+      <c r="W215" s="3"/>
+      <c r="X215" s="3"/>
+      <c r="Y215" s="3"/>
+      <c r="Z215" s="3"/>
+      <c r="AA215" s="3"/>
+      <c r="AB215" s="3"/>
+      <c r="AC215" s="3"/>
+      <c r="AD215" s="3"/>
+    </row>
+    <row r="216" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A216" s="4"/>
+      <c r="B216" s="4"/>
+      <c r="C216" s="4"/>
+      <c r="D216" s="4"/>
+      <c r="E216" s="4"/>
+      <c r="F216" s="4"/>
+      <c r="G216" s="4"/>
+      <c r="H216" s="4"/>
+      <c r="I216" s="4"/>
+      <c r="J216" s="4"/>
+      <c r="K216" s="4"/>
+      <c r="L216" s="4"/>
+      <c r="M216" s="4"/>
+      <c r="N216" s="4"/>
+      <c r="O216" s="4"/>
+      <c r="P216" s="4"/>
+      <c r="Q216" s="4"/>
+      <c r="R216" s="4"/>
+      <c r="S216" s="4"/>
+      <c r="T216" s="4"/>
+      <c r="U216" s="4"/>
+      <c r="V216" s="3"/>
+      <c r="W216" s="3"/>
+      <c r="X216" s="3"/>
+      <c r="Y216" s="3"/>
+      <c r="Z216" s="3"/>
+      <c r="AA216" s="3"/>
+      <c r="AB216" s="3"/>
+      <c r="AC216" s="3"/>
+      <c r="AD216" s="3"/>
+    </row>
+    <row r="217" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A217" s="4"/>
+      <c r="B217" s="4"/>
+      <c r="C217" s="4"/>
+      <c r="D217" s="4"/>
+      <c r="E217" s="4"/>
+      <c r="F217" s="4"/>
+      <c r="G217" s="4"/>
+      <c r="H217" s="4"/>
+      <c r="I217" s="4"/>
+      <c r="J217" s="4"/>
+      <c r="K217" s="4"/>
+      <c r="L217" s="4"/>
+      <c r="M217" s="4"/>
+      <c r="N217" s="4"/>
+      <c r="O217" s="4"/>
+      <c r="P217" s="4"/>
+      <c r="Q217" s="4"/>
+      <c r="R217" s="4"/>
+      <c r="S217" s="4"/>
+      <c r="T217" s="4"/>
+      <c r="U217" s="4"/>
+      <c r="V217" s="3"/>
+      <c r="W217" s="3"/>
+      <c r="X217" s="3"/>
+      <c r="Y217" s="3"/>
+      <c r="Z217" s="3"/>
+      <c r="AA217" s="3"/>
+      <c r="AB217" s="3"/>
+      <c r="AC217" s="3"/>
+      <c r="AD217" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4"/>
@@ -11323,7 +11252,7 @@
           <x14:formula1>
             <xm:f>入力規則!$A$1:$A$10</xm:f>
           </x14:formula1>
-          <xm:sqref>A2:A214</xm:sqref>
+          <xm:sqref>A2:A217</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -11344,17 +11273,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
@@ -11369,27 +11298,27 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
